--- a/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swe\Progetto!\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenma\Desktop\Desktop Marco\UNIPD\Ingegneria del Software\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5F6621-F430-413C-8CBD-EB3E8E601307}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A58963-6C47-400A-91CE-50990BAA46D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Metriche processi" sheetId="2" r:id="rId2"/>
+    <sheet name="Metriche Software" sheetId="3" r:id="rId3"/>
+    <sheet name="Metriche Documenti" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
   <si>
     <t>Analisi</t>
   </si>
@@ -59,15 +62,166 @@
   <si>
     <t>Media verbali</t>
   </si>
+  <si>
+    <t>Metriche processi</t>
+  </si>
+  <si>
+    <t>Incremento 1</t>
+  </si>
+  <si>
+    <t>Incremento 2</t>
+  </si>
+  <si>
+    <t>Incremento 3</t>
+  </si>
+  <si>
+    <t>Incremento 4</t>
+  </si>
+  <si>
+    <t>Incremento 5</t>
+  </si>
+  <si>
+    <t>Incremento 6</t>
+  </si>
+  <si>
+    <t>Incremento 7</t>
+  </si>
+  <si>
+    <t>Incremento 8</t>
+  </si>
+  <si>
+    <t>Schedule Variance</t>
+  </si>
+  <si>
+    <t>Budget Variance</t>
+  </si>
+  <si>
+    <t>Budget at Completion</t>
+  </si>
+  <si>
+    <t>Earned Value</t>
+  </si>
+  <si>
+    <t>Planned Value</t>
+  </si>
+  <si>
+    <t>Requirements stability index</t>
+  </si>
+  <si>
+    <t>Satisfied obligatory requirements</t>
+  </si>
+  <si>
+    <t>Code Coverage</t>
+  </si>
+  <si>
+    <t>Passed test cases percentage</t>
+  </si>
+  <si>
+    <t>Failed test cases Percentage</t>
+  </si>
+  <si>
+    <t>Quality Metrics Satisfied</t>
+  </si>
+  <si>
+    <t>Non-calculated Risk</t>
+  </si>
+  <si>
+    <t>Copertura requisiti</t>
+  </si>
+  <si>
+    <t>Versioni browser supportate</t>
+  </si>
+  <si>
+    <t>Average Cyclomatic complexity</t>
+  </si>
+  <si>
+    <t>Comprensione del codice</t>
+  </si>
+  <si>
+    <t>Tempo medio di risposta</t>
+  </si>
+  <si>
+    <t>Facilità di utilizzo</t>
+  </si>
+  <si>
+    <t>Facilità apprendimento funzionalità</t>
+  </si>
+  <si>
+    <t>Densità di failure</t>
+  </si>
+  <si>
+    <t>Indice Gulpease</t>
+  </si>
+  <si>
+    <t>Errori ortografici</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Analisi dei requisiti</t>
+  </si>
+  <si>
+    <t>Piano di progetto</t>
+  </si>
+  <si>
+    <t>Piano di qualifica</t>
+  </si>
+  <si>
+    <t>Norme di progetto</t>
+  </si>
+  <si>
+    <t>Accettazione</t>
+  </si>
+  <si>
+    <t>Periodo 1</t>
+  </si>
+  <si>
+    <t>Periodo 2</t>
+  </si>
+  <si>
+    <t>Periodo 3</t>
+  </si>
+  <si>
+    <t>Periodo 4</t>
+  </si>
+  <si>
+    <t>Incremento 0</t>
+  </si>
+  <si>
+    <t>Metriche Software</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,8 +247,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -7742,16 +7905,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351464DA-C1FD-4F90-B8EF-3877AE8C241A}">
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>2</v>
       </c>
@@ -7771,7 +7934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7794,7 +7957,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7817,7 +7980,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -7831,7 +7994,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -7845,7 +8008,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -7859,7 +8022,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -7873,7 +8036,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -7887,7 +8050,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -7901,7 +8064,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -7915,7 +8078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -7929,7 +8092,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -7943,7 +8106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -7957,7 +8120,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -7971,7 +8134,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -7990,4 +8153,419 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C4B70-CAB6-4B77-844E-3060F7E9865F}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E02C8E-8587-4B94-82DE-105FC5F151F1}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3B5200-58CF-498E-834C-4CD9DF998495}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenma\Desktop\Desktop Marco\UNIPD\Ingegneria del Software\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A58963-6C47-400A-91CE-50990BAA46D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF46A92F-282F-43E2-A820-226973102A7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Metriche processi" sheetId="2" r:id="rId2"/>
-    <sheet name="Metriche Software" sheetId="3" r:id="rId3"/>
-    <sheet name="Metriche Documenti" sheetId="4" r:id="rId4"/>
+    <sheet name="Metriche Software" sheetId="3" r:id="rId2"/>
+    <sheet name="Metriche Documenti" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
   <si>
     <t>Analisi</t>
   </si>
@@ -63,9 +62,6 @@
     <t>Media verbali</t>
   </si>
   <si>
-    <t>Metriche processi</t>
-  </si>
-  <si>
     <t>Incremento 1</t>
   </si>
   <si>
@@ -88,42 +84,6 @@
   </si>
   <si>
     <t>Incremento 8</t>
-  </si>
-  <si>
-    <t>Schedule Variance</t>
-  </si>
-  <si>
-    <t>Budget Variance</t>
-  </si>
-  <si>
-    <t>Budget at Completion</t>
-  </si>
-  <si>
-    <t>Earned Value</t>
-  </si>
-  <si>
-    <t>Planned Value</t>
-  </si>
-  <si>
-    <t>Requirements stability index</t>
-  </si>
-  <si>
-    <t>Satisfied obligatory requirements</t>
-  </si>
-  <si>
-    <t>Code Coverage</t>
-  </si>
-  <si>
-    <t>Passed test cases percentage</t>
-  </si>
-  <si>
-    <t>Failed test cases Percentage</t>
-  </si>
-  <si>
-    <t>Quality Metrics Satisfied</t>
-  </si>
-  <si>
-    <t>Non-calculated Risk</t>
   </si>
   <si>
     <t>Copertura requisiti</t>
@@ -254,10 +214,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -7905,7 +7865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351464DA-C1FD-4F90-B8EF-3877AE8C241A}">
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -8156,132 +8116,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C4B70-CAB6-4B77-844E-3060F7E9865F}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E02C8E-8587-4B94-82DE-105FC5F151F1}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+      <selection sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8292,74 +8131,74 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -8367,12 +8206,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3B5200-58CF-498E-834C-4CD9DF998495}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8382,74 +8221,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -8459,7 +8298,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -8474,66 +8313,66 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -8543,7 +8382,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -8558,7 +8397,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenma\Desktop\Desktop Marco\UNIPD\Ingegneria del Software\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swe\Progetto!\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF46A92F-282F-43E2-A820-226973102A7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B5C0A1-0F9B-4E78-92A0-9ED4BB8A132E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>Analisi</t>
   </si>
@@ -151,12 +151,24 @@
   <si>
     <t>Metriche Software</t>
   </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>RQ</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>numero requisiti totali:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +198,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -218,6 +238,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -7865,16 +7887,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351464DA-C1FD-4F90-B8EF-3877AE8C241A}">
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>2</v>
       </c>
@@ -7894,7 +7916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7917,7 +7939,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7940,7 +7962,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -7954,7 +7976,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -7968,7 +7990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -7982,7 +8004,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -7996,7 +8018,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -8010,7 +8032,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -8024,7 +8046,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -8038,7 +8060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -8052,7 +8074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -8066,7 +8088,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -8080,7 +8102,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -8094,7 +8116,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -8117,19 +8139,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E02C8E-8587-4B94-82DE-105FC5F151F1}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -8161,42 +8184,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B3" s="7"/>
+      <c r="L3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -8210,17 +8240,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3B5200-58CF-498E-834C-4CD9DF998495}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>26</v>
       </c>
@@ -8232,7 +8262,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -8276,61 +8306,118 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E5">
+        <v>67</v>
+      </c>
+      <c r="F5">
+        <v>86</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E6">
+        <v>71</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E7">
+        <v>77</v>
+      </c>
+      <c r="F7">
+        <v>80</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E8">
+        <v>73</v>
+      </c>
+      <c r="F8">
+        <v>87</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E9">
+        <v>70</v>
+      </c>
+      <c r="F9">
+        <v>91</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>36</v>
@@ -8360,44 +8447,93 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8406,5 +8542,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swe\Progetto!\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D6A52-FF6C-4A1A-9736-664405D56D57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF33F39F-99FA-4B9D-B700-198F0B369604}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>Analisi</t>
   </si>
@@ -168,6 +168,21 @@
   </si>
   <si>
     <t>Piano di Progetto</t>
+  </si>
+  <si>
+    <t>(linee commenti / linee codice) * 100</t>
+  </si>
+  <si>
+    <t>numero di click necessario per la funzionalità</t>
+  </si>
+  <si>
+    <t>numero di minuti che un utente usa per capire come funzia</t>
+  </si>
+  <si>
+    <t>percentuale test falliti</t>
+  </si>
+  <si>
+    <t>(1 - requisiti manc/requisiti tot) *100</t>
   </si>
 </sst>
 </file>
@@ -889,6 +904,1431 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Errori ortografici</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Analisi dei requisiti</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>RR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$13:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-850C-4941-8CA6-5D6B3DC503A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Piano di progetto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>RR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$14:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-850C-4941-8CA6-5D6B3DC503A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Piano di qualifica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>RR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$15:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-850C-4941-8CA6-5D6B3DC503A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Glossario</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>RR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$16:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-850C-4941-8CA6-5D6B3DC503A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Norme di progetto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>RR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$17:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-850C-4941-8CA6-5D6B3DC503A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Studio di fattibilità</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>RR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$18:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-850C-4941-8CA6-5D6B3DC503A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media verbali</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>RR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$19:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-850C-4941-8CA6-5D6B3DC503A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accettazione</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>RR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$20:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-850C-4941-8CA6-5D6B3DC503A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="614442680"/>
+        <c:axId val="614446520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="614442680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614446520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="614446520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614442680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -910,6 +2350,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85665F02-754E-4F97-AC62-692F12C3049D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF4B671-6DB8-474F-9E5B-241A8B1890DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,7 +2710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351464DA-C1FD-4F90-B8EF-3877AE8C241A}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1325,10 +2806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E02C8E-8587-4B94-82DE-105FC5F151F1}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,7 +2819,7 @@
     <col min="12" max="12" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1370,15 +2851,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L2" t="s">
         <v>40</v>
       </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1387,38 +2871,51 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1427,7 +2924,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1499,9 +2996,6 @@
       <c r="E3">
         <v>70</v>
       </c>
-      <c r="F3">
-        <v>90</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1510,9 +3004,6 @@
       <c r="E4">
         <v>65</v>
       </c>
-      <c r="F4">
-        <v>81</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1521,9 +3012,6 @@
       <c r="E5">
         <v>67</v>
       </c>
-      <c r="F5">
-        <v>86</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1532,9 +3020,6 @@
       <c r="E6">
         <v>71</v>
       </c>
-      <c r="F6">
-        <v>80</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1543,9 +3028,6 @@
       <c r="E7">
         <v>77</v>
       </c>
-      <c r="F7">
-        <v>80</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1554,9 +3036,6 @@
       <c r="E8">
         <v>73</v>
       </c>
-      <c r="F8">
-        <v>87</v>
-      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1565,28 +3044,10 @@
       <c r="E9">
         <v>70</v>
       </c>
-      <c r="F9">
-        <v>91</v>
-      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B10">
-        <v>80</v>
-      </c>
-      <c r="C10">
-        <v>80</v>
-      </c>
-      <c r="D10">
-        <v>80</v>
-      </c>
-      <c r="E10">
-        <v>80</v>
-      </c>
-      <c r="F10">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
@@ -1729,5 +3190,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swe\Progetto!\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF33F39F-99FA-4B9D-B700-198F0B369604}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB46819-09B4-4599-8F3A-8B10D4CF7FA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,23 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
-  <si>
-    <t>Analisi</t>
-  </si>
-  <si>
-    <t>Valore ideale prossimo periodo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>Studio di fattibilità</t>
   </si>
   <si>
-    <t>Analisi dei Requisiti</t>
-  </si>
-  <si>
-    <t>Piano di Qualifica</t>
-  </si>
-  <si>
     <t>Glossario</t>
   </si>
   <si>
@@ -131,18 +119,6 @@
     <t>Accettazione</t>
   </si>
   <si>
-    <t>Periodo 1</t>
-  </si>
-  <si>
-    <t>Periodo 2</t>
-  </si>
-  <si>
-    <t>Periodo 3</t>
-  </si>
-  <si>
-    <t>Periodo 4</t>
-  </si>
-  <si>
     <t>Incremento 0</t>
   </si>
   <si>
@@ -164,12 +140,6 @@
     <t>chrome, edge, mozilla</t>
   </si>
   <si>
-    <t>Norme di Progetto</t>
-  </si>
-  <si>
-    <t>Piano di Progetto</t>
-  </si>
-  <si>
     <t>(linee commenti / linee codice) * 100</t>
   </si>
   <si>
@@ -183,6 +153,33 @@
   </si>
   <si>
     <t>(1 - requisiti manc/requisiti tot) *100</t>
+  </si>
+  <si>
+    <t>calcolo vero RR</t>
+  </si>
+  <si>
+    <t>calcolo RR consegnato</t>
+  </si>
+  <si>
+    <t>REQUISITI soddisfatti</t>
+  </si>
+  <si>
+    <t>REQUISTI totali</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>numero delle frasi:</t>
+  </si>
+  <si>
+    <t>numero delle lettere:</t>
+  </si>
+  <si>
+    <t>numero delle parole:</t>
+  </si>
+  <si>
+    <t>calcolo per gulpease:</t>
   </si>
 </sst>
 </file>
@@ -248,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -258,6 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,7 +311,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Indice di Gulpease</a:t>
+              <a:t>grafico da usare come modello</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -341,9 +339,6 @@
               <c:f>Foglio1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Studio di fattibilità</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -393,15 +388,6 @@
           <c:cat>
             <c:strRef>
               <c:f>Foglio1!$A$2:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Analisi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valore ideale prossimo periodo</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -410,12 +396,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -434,24 +414,12 @@
               <c:f>Foglio1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Analisi dei Requisiti</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>Foglio1!$A$2:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Analisi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valore ideale prossimo periodo</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -460,12 +428,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -484,24 +446,12 @@
               <c:f>Foglio1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Piano di Qualifica</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>Foglio1!$A$2:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Analisi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valore ideale prossimo periodo</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -510,12 +460,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -534,24 +478,12 @@
               <c:f>Foglio1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Piano di Progetto</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>Foglio1!$A$2:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Analisi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valore ideale prossimo periodo</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -560,12 +492,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -584,24 +510,12 @@
               <c:f>Foglio1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Glossario</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>Foglio1!$A$2:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Analisi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valore ideale prossimo periodo</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -610,12 +524,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -634,24 +542,12 @@
               <c:f>Foglio1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Media verbali</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>Foglio1!$A$2:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Analisi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valore ideale prossimo periodo</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -660,12 +556,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -684,24 +574,12 @@
               <c:f>Foglio1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Norme di Progetto</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>Foglio1!$A$2:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Analisi</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valore ideale prossimo periodo</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -710,12 +588,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -917,6 +789,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -952,26 +825,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -980,7 +833,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="7"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -993,30 +846,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
@@ -1049,12 +878,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-850C-4941-8CA6-5D6B3DC503A9}"/>
+              <c16:uniqueId val="{00000047-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="8"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -1067,30 +896,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
@@ -1123,12 +928,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-850C-4941-8CA6-5D6B3DC503A9}"/>
+              <c16:uniqueId val="{00000048-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="9"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -1141,30 +946,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
@@ -1197,12 +978,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-850C-4941-8CA6-5D6B3DC503A9}"/>
+              <c16:uniqueId val="{00000049-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="10"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -1215,30 +996,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
@@ -1271,12 +1028,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-850C-4941-8CA6-5D6B3DC503A9}"/>
+              <c16:uniqueId val="{0000004A-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="11"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
@@ -1289,30 +1046,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
@@ -1345,12 +1078,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-850C-4941-8CA6-5D6B3DC503A9}"/>
+              <c16:uniqueId val="{0000004B-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="12"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
@@ -1363,30 +1096,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
@@ -1419,12 +1128,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-850C-4941-8CA6-5D6B3DC503A9}"/>
+              <c16:uniqueId val="{0000004C-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="13"/>
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
@@ -1437,36 +1146,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
@@ -1499,12 +1178,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-850C-4941-8CA6-5D6B3DC503A9}"/>
+              <c16:uniqueId val="{0000004D-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
+          <c:idx val="14"/>
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
@@ -1518,33 +1197,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="0"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
@@ -1579,7 +1244,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-850C-4941-8CA6-5D6B3DC503A9}"/>
+              <c16:uniqueId val="{0000004E-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1593,11 +1258,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="614442680"/>
-        <c:axId val="614446520"/>
+        <c:axId val="1946422384"/>
+        <c:axId val="1946411568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="614442680"/>
+        <c:axId val="1946422384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1305,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614446520"/>
+        <c:crossAx val="1946411568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1648,9 +1313,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="614446520"/>
+        <c:axId val="1946411568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1672,47 +1339,23 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614442680"/>
+        <c:crossAx val="1946422384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1744,30 +1387,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1786,563 +1408,652 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Indice di Gulpease</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
         <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Analisi dei requisiti</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>calcolo RR consegnato</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>calcolo vero RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000047-5945-436F-ACF0-44F9517A41AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Piano di progetto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>calcolo RR consegnato</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>calcolo vero RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000048-5945-436F-ACF0-44F9517A41AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Piano di qualifica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>calcolo RR consegnato</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>calcolo vero RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000049-5945-436F-ACF0-44F9517A41AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Glossario</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>calcolo RR consegnato</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>calcolo vero RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$6:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004A-5945-436F-ACF0-44F9517A41AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Norme di progetto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>calcolo RR consegnato</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>calcolo vero RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004B-5945-436F-ACF0-44F9517A41AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Studio di fattibilità</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>calcolo RR consegnato</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>calcolo vero RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$8:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004C-5945-436F-ACF0-44F9517A41AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media verbali</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>calcolo RR consegnato</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>calcolo vero RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$9:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004D-5945-436F-ACF0-44F9517A41AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accettazione</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>calcolo RR consegnato</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>calcolo vero RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$10:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004E-5945-436F-ACF0-44F9517A41AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1946422384"/>
+        <c:axId val="1946411568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1946422384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946411568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1946411568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946422384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
         <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1035008</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>151458</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>559782</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>536841</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>151458</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>258261</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176038</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2374,16 +2085,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2403,6 +2114,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4882AA07-9970-4B09-B24E-C17098202F59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2706,95 +2453,338 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351464DA-C1FD-4F90-B8EF-3877AE8C241A}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A9:K13"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>73</v>
-      </c>
-      <c r="D2">
-        <v>70</v>
-      </c>
-      <c r="E2">
-        <v>67</v>
-      </c>
-      <c r="F2">
-        <v>65</v>
-      </c>
-      <c r="G2">
-        <v>71</v>
-      </c>
-      <c r="H2">
-        <v>70</v>
-      </c>
-      <c r="I2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>80</v>
-      </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
-      <c r="E3">
-        <v>80</v>
-      </c>
-      <c r="F3">
-        <v>80</v>
-      </c>
-      <c r="G3">
-        <v>80</v>
-      </c>
-      <c r="H3">
-        <v>80</v>
-      </c>
-      <c r="I3">
-        <v>80</v>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <f>89 + ((300*D11) -(10*D12))/D13</f>
+        <v>70.612903225806448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>1800</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>310</v>
+      </c>
       <c r="K13" s="5"/>
     </row>
   </sheetData>
@@ -2806,10 +2796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E02C8E-8587-4B94-82DE-105FC5F151F1}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2821,96 +2811,157 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B2" t="e">
+        <f t="shared" ref="B2:J2" si="0">(B11*100)/B12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6"/>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2924,22 +2975,24 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="6" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -2947,156 +3000,177 @@
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="B3">
         <v>70</v>
+      </c>
+      <c r="C3">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="B4">
         <v>65</v>
+      </c>
+      <c r="C4">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="B5">
         <v>67</v>
+      </c>
+      <c r="C5">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>71</v>
+      </c>
+      <c r="C6">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="B7">
         <v>77</v>
+      </c>
+      <c r="C7">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="B8">
         <v>73</v>
+      </c>
+      <c r="C8">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="B9">
         <v>70</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3107,7 +3181,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3118,7 +3192,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3129,7 +3203,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -3140,7 +3214,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3151,7 +3225,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3163,7 +3237,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -3174,7 +3248,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>0</v>

--- a/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swe\Progetto!\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB46819-09B4-4599-8F3A-8B10D4CF7FA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AFFDA5-B8B4-4806-AF63-A79150D46E9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Studio di fattibilità</t>
   </si>
@@ -155,18 +155,6 @@
     <t>(1 - requisiti manc/requisiti tot) *100</t>
   </si>
   <si>
-    <t>calcolo vero RR</t>
-  </si>
-  <si>
-    <t>calcolo RR consegnato</t>
-  </si>
-  <si>
-    <t>REQUISITI soddisfatti</t>
-  </si>
-  <si>
-    <t>REQUISTI totali</t>
-  </si>
-  <si>
     <t>xxx</t>
   </si>
   <si>
@@ -180,6 +168,27 @@
   </si>
   <si>
     <t>calcolo per gulpease:</t>
+  </si>
+  <si>
+    <t>fase di analisi</t>
+  </si>
+  <si>
+    <t>progettazione tecnology baseline</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>REQUISITI mancanti</t>
+  </si>
+  <si>
+    <t>REQUISTI totali (funzionali obbligatori)</t>
+  </si>
+  <si>
+    <t>REQUISITI fatti</t>
+  </si>
+  <si>
+    <t>Valore preferibile</t>
   </si>
 </sst>
 </file>
@@ -254,11 +263,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -386,9 +395,9 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Foglio1!$A$2:$B$3</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -418,9 +427,9 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Foglio1!$A$2:$B$3</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -450,9 +459,9 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Foglio1!$A$2:$B$3</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -482,9 +491,9 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Foglio1!$A$2:$B$3</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -514,9 +523,9 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Foglio1!$A$2:$B$3</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -546,9 +555,9 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Foglio1!$A$2:$B$3</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -578,9 +587,9 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Foglio1!$A$2:$B$3</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -789,6 +798,840 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Metriche Software</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo medio di risposta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Incremento 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$6:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CBB-40C8-A296-2C7CC2CB4730}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Facilità di utilizzo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Incremento 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CBB-40C8-A296-2C7CC2CB4730}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Facilità apprendimento funzionalità</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Incremento 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$8:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5CBB-40C8-A296-2C7CC2CB4730}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comprensione del codice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-5CBB-40C8-A296-2C7CC2CB4730}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1946422384"/>
+        <c:axId val="1946411568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1946422384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946411568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1946411568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946422384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Metriche Software %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copertura requisiti</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Incremento 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.76923076923077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFBC-4F4F-8F54-07C33BEA1FF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Versioni browser supportate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Incremento 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CFBC-4F4F-8F54-07C33BEA1FF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comprensione del codice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Incremento 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-CFBC-4F4F-8F54-07C33BEA1FF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Densità di failure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Incremento 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$9:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-CFBC-4F4F-8F54-07C33BEA1FF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1946422384"/>
+        <c:axId val="1946411568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1946422384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946411568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1946411568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946422384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
@@ -1408,7 +2251,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1483,10 +2326,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>calcolo RR consegnato</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>calcolo vero RR</c:v>
+                  <c:v>fase di analisi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>progettazione tecnology baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1533,10 +2376,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>calcolo RR consegnato</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>calcolo vero RR</c:v>
+                  <c:v>fase di analisi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>progettazione tecnology baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1583,10 +2426,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>calcolo RR consegnato</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>calcolo vero RR</c:v>
+                  <c:v>fase di analisi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>progettazione tecnology baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1633,10 +2476,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>calcolo RR consegnato</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>calcolo vero RR</c:v>
+                  <c:v>fase di analisi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>progettazione tecnology baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1683,10 +2526,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>calcolo RR consegnato</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>calcolo vero RR</c:v>
+                  <c:v>fase di analisi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>progettazione tecnology baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1733,10 +2576,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>calcolo RR consegnato</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>calcolo vero RR</c:v>
+                  <c:v>fase di analisi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>progettazione tecnology baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1751,7 +2594,7 @@
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1783,10 +2626,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>calcolo RR consegnato</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>calcolo vero RR</c:v>
+                  <c:v>fase di analisi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>progettazione tecnology baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1822,7 +2665,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accettazione</c:v>
+                  <c:v>Valore preferibile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1849,10 +2692,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>calcolo RR consegnato</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>calcolo vero RR</c:v>
+                  <c:v>fase di analisi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>progettazione tecnology baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1891,6 +2734,45 @@
         <c:smooth val="0"/>
         <c:axId val="1946422384"/>
         <c:axId val="1946411568"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Metriche Documenti'!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:val>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-FC36-4511-9C2E-DC60DD7EA2DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1946422384"/>
@@ -1900,7 +2782,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1967,7 +2849,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -2082,6 +2964,87 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23442</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>46381</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A613A8B-5587-402C-A2BA-73E18BEC9D60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44041</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>844475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>35874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517267B7-FC61-41D2-ACBD-82B1A09E6F21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2743,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351464DA-C1FD-4F90-B8EF-3877AE8C241A}">
   <dimension ref="A9:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2755,35 +3718,35 @@
   <sheetData>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <f>89 + ((300*D11) -(10*D12))/D13</f>
-        <v>70.612903225806448</v>
+        <v>58.101931771475549</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>831</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12">
-        <v>1800</v>
+        <v>41</v>
+      </c>
+      <c r="D12" s="8">
+        <v>55000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>310</v>
+        <v>9732</v>
       </c>
       <c r="K13" s="5"/>
     </row>
@@ -2798,8 +3761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E02C8E-8587-4B94-82DE-105FC5F151F1}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2845,41 +3808,44 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="e">
-        <f t="shared" ref="B2:J2" si="0">(B11*100)/B12</f>
+      <c r="B2">
+        <f>(1-(B11/B12))*100</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="C2">
+        <f>(1-C11/B12)*100</f>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="D2" t="e">
+        <f>(1-D11/B12)*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C2" t="e">
-        <f t="shared" si="0"/>
+      <c r="E2" t="e">
+        <f>(1-E11/B12)*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="F2">
+        <f>(1-F11/B12)*100</f>
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <f>(1-G11/B12)*100</f>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <f>(1-H11/B12)*100</f>
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <f>(1-I11/B12)*100</f>
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <f>(1-J11/B12)*100</f>
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
@@ -2892,7 +3858,12 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
       <c r="L3" t="s">
         <v>33</v>
       </c>
@@ -2919,6 +3890,12 @@
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="L7" t="s">
         <v>35</v>
       </c>
@@ -2927,6 +3904,12 @@
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="L8" t="s">
         <v>36</v>
       </c>
@@ -2935,38 +3918,58 @@
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="L9" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <f>B12-B10</f>
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <f>B12-C10</f>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2974,25 +3977,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3B5200-58CF-498E-834C-4CD9DF998495}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -3003,16 +4003,16 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3099,7 +4099,7 @@
         <v>73</v>
       </c>
       <c r="C8">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -3115,7 +4115,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -3123,6 +4123,9 @@
       <c r="C10">
         <v>80</v>
       </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">

--- a/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swe\Progetto!\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AFFDA5-B8B4-4806-AF63-A79150D46E9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D0F855-6B5B-4CF2-9420-BFB90B768B54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Studio di fattibilità</t>
   </si>
@@ -189,13 +189,16 @@
   </si>
   <si>
     <t>Valore preferibile</t>
+  </si>
+  <si>
+    <t>number of decision points + 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +236,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -264,10 +273,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -845,35 +855,27 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Software'!$A$6</c:f>
+              <c:f>'Metriche Software'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tempo medio di risposta</c:v>
+                  <c:v>Average Cyclomatic complexity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Incremento 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$6:$C$6</c:f>
+              <c:f>'Metriche Software'!$B$4:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -885,95 +887,25 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Software'!$A$7</c:f>
+              <c:f>'Metriche Software'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Facilità di utilizzo</c:v>
+                  <c:v>Tempo medio di risposta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Incremento 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$7:$C$7</c:f>
+              <c:f>'Metriche Software'!$B$6:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5CBB-40C8-A296-2C7CC2CB4730}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metriche Software'!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Facilità apprendimento funzionalità</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Incremento 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metriche Software'!$B$8:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -986,31 +918,73 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Software'!$A$5</c:f>
+              <c:f>'Metriche Software'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Comprensione del codice</c:v>
+                  <c:v>Facilità di utilizzo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-5CBB-40C8-A296-2C7CC2CB4730}"/>
+              <c16:uniqueId val="{00000002-385C-4543-B193-6E379B3C54ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Facilità apprendimento funzionalità</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$8:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-385C-4543-B193-6E379B3C54ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3737,7 +3711,7 @@
       <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>55000</v>
       </c>
     </row>
@@ -3762,7 +3736,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3871,6 +3845,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -3989,10 +3972,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>

--- a/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swe\Progetto!\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D0F855-6B5B-4CF2-9420-BFB90B768B54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B064481-0D8C-4BAA-9B70-B3230F60D3B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>Studio di fattibilità</t>
   </si>
@@ -71,21 +71,12 @@
     <t>Incremento 8</t>
   </si>
   <si>
-    <t>Copertura requisiti</t>
-  </si>
-  <si>
-    <t>Versioni browser supportate</t>
-  </si>
-  <si>
     <t>Average Cyclomatic complexity</t>
   </si>
   <si>
     <t>Comprensione del codice</t>
   </si>
   <si>
-    <t>Tempo medio di risposta</t>
-  </si>
-  <si>
     <t>Facilità di utilizzo</t>
   </si>
   <si>
@@ -192,13 +183,34 @@
   </si>
   <si>
     <t>number of decision points + 1</t>
+  </si>
+  <si>
+    <t>linee coomenti</t>
+  </si>
+  <si>
+    <t>linee codice</t>
+  </si>
+  <si>
+    <t>Programmazione TB</t>
+  </si>
+  <si>
+    <t>% Copertura requisiti</t>
+  </si>
+  <si>
+    <t>% Versioni browser supportate</t>
+  </si>
+  <si>
+    <t>Tempo medio di risposta in ms</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +254,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -263,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -274,10 +293,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -830,8 +850,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Metriche Software</a:t>
+              <a:t>Metriche</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> software</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -855,26 +880,46 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Software'!$A$4</c:f>
+              <c:f>'Metriche Software'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average Cyclomatic complexity</c:v>
+                  <c:v>% Copertura requisiti</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$4:$C$4</c:f>
+              <c:f>'Metriche Software'!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>15.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.76923076923077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,65 +927,337 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5CBB-40C8-A296-2C7CC2CB4730}"/>
+              <c16:uniqueId val="{00000000-7A55-4642-AA04-88F6564AA90A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Software'!$A$6</c:f>
+              <c:f>'Metriche Software'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tempo medio di risposta</c:v>
+                  <c:v>% Versioni browser supportate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$6:$C$6</c:f>
+              <c:f>'Metriche Software'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-5CBB-40C8-A296-2C7CC2CB4730}"/>
+              <c16:uniqueId val="{00000005-7A55-4642-AA04-88F6564AA90A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1946422384"/>
+        <c:axId val="1946411568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1946422384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946411568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1946411568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946422384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69001471701147932"/>
+          <c:y val="0.35767304515900317"/>
+          <c:w val="0.27855192393516032"/>
+          <c:h val="0.22929570333155874"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" vert="horz"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Metriche Software</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:idx val="10"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Software'!$A$7</c:f>
+              <c:f>'Metriche Software'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Facilità di utilizzo</c:v>
+                  <c:v>Average Cyclomatic complexity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$7:$C$7</c:f>
+              <c:f>'Metriche Software'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,34 +1265,54 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-385C-4543-B193-6E379B3C54ED}"/>
+              <c16:uniqueId val="{0000001B-722D-4251-8C63-934148AF9082}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:idx val="13"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Software'!$A$8</c:f>
+              <c:f>'Metriche Software'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Facilità apprendimento funzionalità</c:v>
+                  <c:v>Facilità di utilizzo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$8:$C$8</c:f>
+              <c:f>'Metriche Software'!$B$7:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -984,7 +1321,119 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-385C-4543-B193-6E379B3C54ED}"/>
+              <c16:uniqueId val="{0000001E-722D-4251-8C63-934148AF9082}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Facilità apprendimento funzionalità</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-722D-4251-8C63-934148AF9082}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Densità di failure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-722D-4251-8C63-934148AF9082}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1114,30 +1563,23 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6643718019167264"/>
+          <c:y val="0.30190231725292072"/>
+          <c:w val="0.31591994294665665"/>
+          <c:h val="0.69809755940506102"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
         </a:p>
@@ -1166,7 +1608,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1201,7 +1643,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Metriche Software %</a:t>
+              <a:t>Metriche Software</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1226,40 +1668,46 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metriche Software'!$A$2</c:f>
+              <c:f>'Metriche Software'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Copertura requisiti</c:v>
+                  <c:v>Tempo medio di risposta in ms</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Incremento 0</c:v>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$2:$C$2</c:f>
+              <c:f>'Metriche Software'!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>15.384615384615385</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.76923076923077</c:v>
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,151 +1715,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CFBC-4F4F-8F54-07C33BEA1FF9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metriche Software'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Versioni browser supportate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Incremento 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metriche Software'!$B$3:$C$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-CFBC-4F4F-8F54-07C33BEA1FF9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metriche Software'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Comprensione del codice</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Incremento 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metriche Software'!$B$5:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-CFBC-4F4F-8F54-07C33BEA1FF9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metriche Software'!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Densità di failure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Incremento 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metriche Software'!$B$9:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-CFBC-4F4F-8F54-07C33BEA1FF9}"/>
+              <c16:uniqueId val="{00000000-7B75-4A3B-89F3-F2C4DE469F9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1541,30 +1845,23 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6643718019167264"/>
+          <c:y val="0.30190231725292072"/>
+          <c:w val="0.33495892583309267"/>
+          <c:h val="0.11420903951433747"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
         </a:p>
@@ -1593,7 +1890,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2225,7 +2522,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2942,22 +3239,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>13252</xdr:rowOff>
+      <xdr:colOff>350762</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>23442</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>46381</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>284829</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57732</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
+        <xdr:cNvPr id="4" name="Grafico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A613A8B-5587-402C-A2BA-73E18BEC9D60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E5AB69-028C-4090-83D1-DCDA7B31952F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2979,23 +3276,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>44041</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2744</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>387048</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>844475</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>35874</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>483061</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>58476</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
+        <xdr:cNvPr id="5" name="Grafico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517267B7-FC61-41D2-ACBD-82B1A09E6F21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB51F79-97D5-4553-867B-0070C7559A59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,6 +3307,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>110290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>557222</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFEE335-5C1B-4152-BA7A-942B58A9F0AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3692,7 +4027,7 @@
   <sheetData>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <f>89 + ((300*D11) -(10*D12))/D13</f>
@@ -3701,7 +4036,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>831</v>
@@ -3709,7 +4044,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
         <v>55000</v>
@@ -3717,7 +4052,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>9732</v>
@@ -3733,25 +4068,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E02C8E-8587-4B94-82DE-105FC5F151F1}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -3760,193 +4097,249 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <f>(1-(B11/B12))*100</f>
+        <v>52</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>(1-(C12/C13))*100</f>
         <v>15.384615384615385</v>
       </c>
-      <c r="C2">
-        <f>(1-C11/B12)*100</f>
+      <c r="D2">
+        <f>(1-D12/C13)*100</f>
         <v>30.76923076923077</v>
       </c>
-      <c r="D2" t="e">
-        <f>(1-D11/B12)*100</f>
+      <c r="E2" t="e">
+        <f>(1-E12/C13)*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E2" t="e">
-        <f>(1-E11/B12)*100</f>
+      <c r="F2" t="e">
+        <f>(1-F12/C13)*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F2">
-        <f>(1-F11/B12)*100</f>
+      <c r="G2">
+        <f>(1-G12/C13)*100</f>
         <v>100</v>
       </c>
-      <c r="G2">
-        <f>(1-G11/B12)*100</f>
+      <c r="H2">
+        <f>(1-H12/C13)*100</f>
         <v>100</v>
       </c>
-      <c r="H2">
-        <f>(1-H11/B12)*100</f>
+      <c r="I2">
+        <f>(1-I12/C13)*100</f>
         <v>100</v>
       </c>
-      <c r="I2">
-        <f>(1-I11/B12)*100</f>
+      <c r="J2">
+        <f>(1-J12/C13)*100</f>
         <v>100</v>
       </c>
-      <c r="J2">
-        <f>(1-J11/B12)*100</f>
+      <c r="K2">
+        <f>(1-K12/C13)*100</f>
         <v>100</v>
       </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6">
         <v>100</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
-      <c r="L3" t="s">
-        <v>33</v>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>51</v>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
+      <c r="B8" s="2">
         <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="L8" t="s">
-        <v>36</v>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6">
         <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
-        <v>37</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12">
+        <f>C13-C11</f>
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <f>C13-D11</f>
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11">
-        <f>B12-B10</f>
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <f>B12-C10</f>
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12">
-        <v>13</v>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3960,8 +4353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3B5200-58CF-498E-834C-4CD9DF998495}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A4" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3972,10 +4365,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -3983,13 +4376,13 @@
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -4021,7 +4414,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>70</v>
@@ -4032,7 +4425,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>65</v>
@@ -4043,7 +4436,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>67</v>
@@ -4065,7 +4458,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>77</v>
@@ -4098,7 +4491,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -4112,22 +4505,22 @@
     </row>
     <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>3</v>
@@ -4156,7 +4549,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4167,7 +4560,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4178,7 +4571,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -4200,7 +4593,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4234,7 +4627,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>0</v>

--- a/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swe\Progetto!\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B064481-0D8C-4BAA-9B70-B3230F60D3B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1540E9F0-F79B-468A-96D9-E69F62908211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>Studio di fattibilità</t>
   </si>
@@ -125,9 +125,6 @@
     <t>RA</t>
   </si>
   <si>
-    <t>serve prima mettere a posto i requisiti dell'adr</t>
-  </si>
-  <si>
     <t>chrome, edge, mozilla</t>
   </si>
   <si>
@@ -170,18 +167,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>REQUISITI mancanti</t>
-  </si>
-  <si>
-    <t>REQUISTI totali (funzionali obbligatori)</t>
-  </si>
-  <si>
-    <t>REQUISITI fatti</t>
-  </si>
-  <si>
-    <t>Valore preferibile</t>
-  </si>
-  <si>
     <t>number of decision points + 1</t>
   </si>
   <si>
@@ -194,16 +179,40 @@
     <t>Programmazione TB</t>
   </si>
   <si>
-    <t>% Copertura requisiti</t>
-  </si>
-  <si>
     <t>% Versioni browser supportate</t>
   </si>
   <si>
     <t>Tempo medio di risposta in ms</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Valore ottimale</t>
+  </si>
+  <si>
+    <t>Valore accettabile</t>
+  </si>
+  <si>
+    <t>% Copertura requisiti obbligatori</t>
+  </si>
+  <si>
+    <t>% Copertura requisiti totali</t>
+  </si>
+  <si>
+    <t>REQUISTI funzionali obbligatori</t>
+  </si>
+  <si>
+    <t>REQUISITI mancanti obbligatori</t>
+  </si>
+  <si>
+    <t>REQUISITI fatti obbligatori</t>
+  </si>
+  <si>
+    <t>REQUISITI fatti totali</t>
+  </si>
+  <si>
+    <t>REQUISITI mancanti totali</t>
+  </si>
+  <si>
+    <t>REQUISITI funzionali totali</t>
   </si>
 </sst>
 </file>
@@ -294,10 +303,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -815,1082 +824,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Metriche</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> software</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metriche Software'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% Copertura requisiti</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metriche Software'!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.384615384615385</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.76923076923077</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A55-4642-AA04-88F6564AA90A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metriche Software'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% Versioni browser supportate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metriche Software'!$B$3:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7A55-4642-AA04-88F6564AA90A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1946422384"/>
-        <c:axId val="1946411568"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1946422384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1946411568"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1946411568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1946422384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.69001471701147932"/>
-          <c:y val="0.35767304515900317"/>
-          <c:w val="0.27855192393516032"/>
-          <c:h val="0.22929570333155874"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr rot="0" vert="horz"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Metriche Software</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metriche Software'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average Cyclomatic complexity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metriche Software'!$B$4:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-722D-4251-8C63-934148AF9082}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metriche Software'!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Facilità di utilizzo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metriche Software'!$B$7:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-722D-4251-8C63-934148AF9082}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metriche Software'!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Facilità apprendimento funzionalità</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metriche Software'!$B$8:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-722D-4251-8C63-934148AF9082}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metriche Software'!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Densità di failure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metriche Software'!$B$9:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-722D-4251-8C63-934148AF9082}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1946422384"/>
-        <c:axId val="1946411568"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1946422384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1946411568"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1946411568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1946422384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.6643718019167264"/>
-          <c:y val="0.30190231725292072"/>
-          <c:w val="0.31591994294665665"/>
-          <c:h val="0.69809755940506102"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr rot="0" vert="horz"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Metriche Software</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metriche Software'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tempo medio di risposta in ms</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metriche Software'!$B$6:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B75-4A3B-89F3-F2C4DE469F9E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1946422384"/>
-        <c:axId val="1946411568"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1946422384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1946411568"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1946411568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1946422384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.6643718019167264"/>
-          <c:y val="0.30190231725292072"/>
-          <c:w val="0.33495892583309267"/>
-          <c:h val="0.11420903951433747"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr rot="0" vert="horz"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2522,7 +1456,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2936,7 +1870,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valore preferibile</c:v>
+                  <c:v>Valore ottimale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2993,6 +1927,63 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>fase di analisi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>progettazione tecnology baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Documenti'!$B$11:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC36-4511-9C2E-DC60DD7EA2DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3005,45 +1996,7 @@
         <c:smooth val="0"/>
         <c:axId val="1946422384"/>
         <c:axId val="1946411568"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="8"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Metriche Documenti'!$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:val>
-                  <c:numLit>
-                    <c:formatCode>General</c:formatCode>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>1</c:v>
-                    </c:pt>
-                  </c:numLit>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-FC36-4511-9C2E-DC60DD7EA2DD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1946422384"/>
@@ -3193,20 +2146,2958 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Copertura</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> dei requisiti</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Copertura requisiti obbligatori</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.76923076923077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A55-4642-AA04-88F6564AA90A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Copertura requisiti totali</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.111111111111116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.222222222222221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7A55-4642-AA04-88F6564AA90A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1946422384"/>
+        <c:axId val="1946411568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1946422384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946411568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1946411568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946422384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" vert="horz"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Average Cyclomatic complexity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Cyclomatic complexity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-722D-4251-8C63-934148AF9082}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-722D-4251-8C63-934148AF9082}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-722D-4251-8C63-934148AF9082}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1946422384"/>
+        <c:axId val="1946411568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1946422384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946411568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1946411568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946422384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" vert="horz"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Tempo medio di risposta</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo medio di risposta in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$15:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B75-4A3B-89F3-F2C4DE469F9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7028-4C7B-8944-810E133DAA65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7028-4C7B-8944-810E133DAA65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1946422384"/>
+        <c:axId val="1946411568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1946422384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946411568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1946411568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946422384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="200"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" vert="horz"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Versioni browser supportate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Versioni browser supportate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-709B-4ACD-B854-730FFA0D4604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1946422384"/>
+        <c:axId val="1946411568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1946422384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946411568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1946411568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946422384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" vert="horz"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Facilità di utilizzo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Facilità di utilizzo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AA8-4C37-AF4A-3C8254BD07E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$20:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3AA8-4C37-AF4A-3C8254BD07E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$21:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3AA8-4C37-AF4A-3C8254BD07E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1946422384"/>
+        <c:axId val="1946411568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1946422384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946411568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1946411568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946422384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" vert="horz"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Facilità apprendimento funzionalità</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Facilità apprendimento funzionalità</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E86-4EC1-8DA0-06F49888B2FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$24:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E86-4EC1-8DA0-06F49888B2FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E86-4EC1-8DA0-06F49888B2FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1946422384"/>
+        <c:axId val="1946411568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1946422384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946411568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1946411568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946422384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" vert="horz"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Densità di failure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Densità di failure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$27:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F38-47F9-BE38-0752438B7AB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$28:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F38-47F9-BE38-0752438B7AB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1F38-47F9-BE38-0752438B7AB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1946422384"/>
+        <c:axId val="1946411568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1946422384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946411568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1946411568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946422384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" vert="horz"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Comprensione del codice</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comprensione del codice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B0A-460C-9BA8-5D0E3D54E0C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0B0A-460C-9BA8-5D0E3D54E0C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Programmazione TB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0B0A-460C-9BA8-5D0E3D54E0C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1946422384"/>
+        <c:axId val="1946411568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1946422384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946411568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1946411568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946422384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" vert="horz"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>559782</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>176038</xdr:rowOff>
+      <xdr:colOff>330363</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>110489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>258261</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>176038</xdr:rowOff>
+      <xdr:colOff>28842</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>110489</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3239,15 +5130,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>350762</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>145143</xdr:rowOff>
+      <xdr:colOff>380841</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>54905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>284829</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57732</xdr:rowOff>
+      <xdr:colOff>314908</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>147968</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3277,15 +5168,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>387048</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133048</xdr:rowOff>
+      <xdr:colOff>397074</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>72890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>483061</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>58476</xdr:rowOff>
+      <xdr:colOff>493087</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>178792</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3315,15 +5206,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>110290</xdr:rowOff>
+      <xdr:colOff>551448</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>557222</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:colOff>537170</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3350,6 +5241,196 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>370974</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>50132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>305041</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>143195</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99147EF4-EAE2-41E5-B256-9759B8D0E4A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>391026</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>80210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>487039</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>5638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581BB997-91FB-4E0E-A9C8-F7B5F5FA7328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581527</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>567249</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>45743</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E38415-2201-4D27-8269-41D7D9C151D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>391026</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366722</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Grafico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCC8EB9-7F6D-4017-9FC2-49358486A6FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>661737</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>757750</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Grafico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D7A1BAD-5BFC-4782-9AA4-24767E904E86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3358,15 +5439,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>853440</xdr:colOff>
+      <xdr:colOff>725277</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>119350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>587567</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3394,15 +5475,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
+      <xdr:colOff>298281</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>120359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>275421</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4016,7 +6097,7 @@
   <dimension ref="A9:K13"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4027,7 +6108,7 @@
   <sheetData>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <f>89 + ((300*D11) -(10*D12))/D13</f>
@@ -4036,7 +6117,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>831</v>
@@ -4044,7 +6125,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7">
         <v>55000</v>
@@ -4052,7 +6133,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>9732</v>
@@ -4068,10 +6149,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E02C8E-8587-4B94-82DE-105FC5F151F1}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="55" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4083,12 +6164,12 @@
     <col min="13" max="13" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>51</v>
+      <c r="B1" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -4118,228 +6199,494 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
       </c>
       <c r="C2">
-        <f>(1-(C12/C13))*100</f>
+        <f>(1-(C32/C33))*100</f>
         <v>15.384615384615385</v>
       </c>
       <c r="D2">
-        <f>(1-D12/C13)*100</f>
+        <f>(1-D32/C33)*100</f>
         <v>30.76923076923077</v>
       </c>
       <c r="E2" t="e">
-        <f>(1-E12/C13)*100</f>
+        <f>(1-E32/C33)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="F2" t="e">
-        <f>(1-F12/C13)*100</f>
+        <f>(1-F32/C33)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="G2">
-        <f>(1-G12/C13)*100</f>
+        <f>(1-G32/C33)*100</f>
         <v>100</v>
       </c>
       <c r="H2">
-        <f>(1-H12/C13)*100</f>
+        <f>(1-H32/C33)*100</f>
         <v>100</v>
       </c>
       <c r="I2">
-        <f>(1-I12/C13)*100</f>
+        <f>(1-I32/C33)*100</f>
         <v>100</v>
       </c>
       <c r="J2">
-        <f>(1-J12/C13)*100</f>
+        <f>(1-J32/C33)*100</f>
         <v>100</v>
       </c>
       <c r="K2">
-        <f>(1-K12/C13)*100</f>
+        <f>(1-K32/C33)*100</f>
         <v>100</v>
       </c>
       <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <f>(1-(B36/B37))*100</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>(1-(C36/C37))*100</f>
+        <v>11.111111111111116</v>
+      </c>
+      <c r="D3">
+        <f>(1-(D36/D37))*100</f>
+        <v>22.222222222222221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="6">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="6">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>140</v>
+      </c>
+      <c r="D15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C16">
+        <v>5000</v>
+      </c>
+      <c r="D16">
+        <v>5000</v>
+      </c>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C17">
+        <v>4000</v>
+      </c>
+      <c r="D17">
+        <v>4000</v>
+      </c>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="6"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="6">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="6">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="6">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="6">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="6">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="6">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32">
+        <f>C33-C31</f>
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <f>C33-D31</f>
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
         <v>35</v>
       </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="6">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
+      <c r="B33" s="6"/>
+      <c r="C33">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="6">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>48</v>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <f>B37-B35</f>
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <f>C37-C35</f>
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <f>D37-D35</f>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>60</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="6">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="M7" t="s">
-        <v>32</v>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12">
-        <f>C13-C11</f>
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <f>C13-D11</f>
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4353,8 +6700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3B5200-58CF-498E-834C-4CD9DF998495}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="83" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4365,10 +6712,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -4379,10 +6726,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -4491,7 +6838,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -4501,7 +6848,15 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">

--- a/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swe\Progetto!\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1540E9F0-F79B-468A-96D9-E69F62908211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F0DD3E61-CE4D-4D6D-8EBE-270C615506EB}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Metriche Software" sheetId="3" r:id="rId2"/>
     <sheet name="Metriche Documenti" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>Studio di fattibilità</t>
   </si>
@@ -161,9 +155,6 @@
     <t>fase di analisi</t>
   </si>
   <si>
-    <t>progettazione tecnology baseline</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -214,12 +205,18 @@
   <si>
     <t>REQUISITI funzionali totali</t>
   </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,18 +322,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -364,7 +351,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -373,12 +360,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -420,14 +405,8 @@
                 <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
               </c:ext>
@@ -447,8 +426,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000014-D844-4058-80FC-DE71F337B55A}"/>
             </c:ext>
@@ -479,8 +457,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000015-D844-4058-80FC-DE71F337B55A}"/>
             </c:ext>
@@ -511,8 +488,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000016-D844-4058-80FC-DE71F337B55A}"/>
             </c:ext>
@@ -543,8 +519,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000017-D844-4058-80FC-DE71F337B55A}"/>
             </c:ext>
@@ -575,8 +550,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000018-D844-4058-80FC-DE71F337B55A}"/>
             </c:ext>
@@ -607,8 +581,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-D844-4058-80FC-DE71F337B55A}"/>
             </c:ext>
@@ -639,36 +612,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7EB1-4CA7-8F70-DB164EC1861B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1946422384"/>
-        <c:axId val="1946411568"/>
+        <c:axId val="124809984"/>
+        <c:axId val="124811520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1946422384"/>
+        <c:axId val="124809984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -703,21 +665,19 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946411568"/>
+        <c:crossAx val="124811520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1946411568"/>
+        <c:axId val="124811520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
           <c:min val="50"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -735,7 +695,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -764,7 +723,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946422384"/>
+        <c:crossAx val="124809984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -772,7 +731,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -803,8 +762,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -818,25 +776,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
@@ -865,7 +813,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -874,12 +822,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="0"/>
@@ -923,8 +869,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000047-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -973,8 +918,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000048-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1023,8 +967,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000049-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1073,8 +1016,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004A-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1123,8 +1065,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004B-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1173,8 +1114,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004C-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1223,8 +1163,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004D-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1289,36 +1228,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004E-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1946422384"/>
-        <c:axId val="1946411568"/>
+        <c:axId val="127587072"/>
+        <c:axId val="127588608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1946422384"/>
+        <c:axId val="127587072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1353,21 +1281,19 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946411568"/>
+        <c:crossAx val="127588608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1946411568"/>
+        <c:axId val="127588608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1385,7 +1311,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" vert="horz"/>
@@ -1397,14 +1322,14 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946422384"/>
+        <c:crossAx val="127587072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1435,8 +1360,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -1450,25 +1374,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1496,7 +1410,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1505,12 +1419,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="0"/>
@@ -1527,35 +1439,46 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+              <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>fase di analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>progettazione tecnology baseline</c:v>
+                  <c:v>TB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$3:$C$3</c:f>
+              <c:f>'Metriche Documenti'!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000047-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1577,35 +1500,46 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+              <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>fase di analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>progettazione tecnology baseline</c:v>
+                  <c:v>TB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$4:$C$4</c:f>
+              <c:f>'Metriche Documenti'!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000048-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1627,35 +1561,46 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+              <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>fase di analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>progettazione tecnology baseline</c:v>
+                  <c:v>TB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$5:$C$5</c:f>
+              <c:f>'Metriche Documenti'!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000049-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1677,35 +1622,46 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+              <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>fase di analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>progettazione tecnology baseline</c:v>
+                  <c:v>TB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$6:$C$6</c:f>
+              <c:f>'Metriche Documenti'!$B$6:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004A-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1727,35 +1683,46 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+              <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>fase di analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>progettazione tecnology baseline</c:v>
+                  <c:v>TB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$7:$C$7</c:f>
+              <c:f>'Metriche Documenti'!$B$7:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004B-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1777,35 +1744,46 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+              <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>fase di analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>progettazione tecnology baseline</c:v>
+                  <c:v>TB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$8:$C$8</c:f>
+              <c:f>'Metriche Documenti'!$B$8:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004C-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1827,35 +1805,46 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+              <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>fase di analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>progettazione tecnology baseline</c:v>
+                  <c:v>TB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$9:$C$9</c:f>
+              <c:f>'Metriche Documenti'!$B$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004D-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1893,35 +1882,46 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+              <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>fase di analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>progettazione tecnology baseline</c:v>
+                  <c:v>TB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$10:$C$10</c:f>
+              <c:f>'Metriche Documenti'!$B$10:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004E-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1950,64 +1950,64 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$2:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+              <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>fase di analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>progettazione tecnology baseline</c:v>
+                  <c:v>TB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$11:$C$11</c:f>
+              <c:f>'Metriche Documenti'!$B$11:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FC36-4511-9C2E-DC60DD7EA2DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1946422384"/>
-        <c:axId val="1946411568"/>
-        <c:extLst/>
+        <c:axId val="126332288"/>
+        <c:axId val="127562880"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1946422384"/>
+        <c:axId val="126332288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2042,21 +2042,19 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946411568"/>
+        <c:crossAx val="127562880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1946411568"/>
+        <c:axId val="127562880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
           <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2073,8 +2071,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" vert="horz"/>
@@ -2086,7 +2082,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946422384"/>
+        <c:crossAx val="126332288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2094,7 +2090,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2125,8 +2121,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -2140,25 +2135,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2191,7 +2176,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2200,12 +2185,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2255,8 +2238,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7A55-4642-AA04-88F6564AA90A}"/>
             </c:ext>
@@ -2311,36 +2293,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7A55-4642-AA04-88F6564AA90A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1946422384"/>
-        <c:axId val="1946411568"/>
+        <c:axId val="125305600"/>
+        <c:axId val="125307136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1946422384"/>
+        <c:axId val="125305600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2375,21 +2346,19 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946411568"/>
+        <c:crossAx val="125307136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1946411568"/>
+        <c:axId val="125307136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2407,7 +2376,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2436,7 +2404,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946422384"/>
+        <c:crossAx val="125305600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2444,7 +2412,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -2458,8 +2426,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -2473,25 +2440,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2519,7 +2476,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2528,12 +2485,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="0"/>
@@ -2583,8 +2538,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001B-722D-4251-8C63-934148AF9082}"/>
             </c:ext>
@@ -2655,8 +2609,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001E-722D-4251-8C63-934148AF9082}"/>
             </c:ext>
@@ -2731,36 +2684,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001F-722D-4251-8C63-934148AF9082}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1946422384"/>
-        <c:axId val="1946411568"/>
+        <c:axId val="125364096"/>
+        <c:axId val="125365632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1946422384"/>
+        <c:axId val="125364096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2795,21 +2737,19 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946411568"/>
+        <c:crossAx val="125365632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1946411568"/>
+        <c:axId val="125365632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2827,7 +2767,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2856,7 +2795,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946422384"/>
+        <c:crossAx val="125364096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2864,7 +2803,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -2878,8 +2817,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -2893,25 +2831,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2939,7 +2867,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2948,12 +2876,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3003,8 +2929,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B75-4A3B-89F3-F2C4DE469F9E}"/>
             </c:ext>
@@ -3059,8 +2984,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7028-4C7B-8944-810E133DAA65}"/>
             </c:ext>
@@ -3115,36 +3039,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7028-4C7B-8944-810E133DAA65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1946422384"/>
-        <c:axId val="1946411568"/>
+        <c:axId val="125418496"/>
+        <c:axId val="125428480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1946422384"/>
+        <c:axId val="125418496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3179,21 +3092,19 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946411568"/>
+        <c:crossAx val="125428480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1946411568"/>
+        <c:axId val="125428480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3211,7 +3122,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3240,7 +3150,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946422384"/>
+        <c:crossAx val="125418496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -3248,7 +3158,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -3262,8 +3172,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -3277,25 +3186,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3323,7 +3222,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3332,12 +3231,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3370,36 +3267,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-709B-4ACD-B854-730FFA0D4604}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1946422384"/>
-        <c:axId val="1946411568"/>
+        <c:axId val="125461632"/>
+        <c:axId val="125463168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1946422384"/>
+        <c:axId val="125461632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3434,21 +3320,19 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946411568"/>
+        <c:crossAx val="125463168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1946411568"/>
+        <c:axId val="125463168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3466,7 +3350,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3495,7 +3378,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946422384"/>
+        <c:crossAx val="125461632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -3503,7 +3386,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -3517,8 +3400,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -3532,25 +3414,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3578,7 +3450,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3587,12 +3459,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="0"/>
@@ -3642,8 +3512,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3AA8-4C37-AF4A-3C8254BD07E3}"/>
             </c:ext>
@@ -3718,8 +3587,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3AA8-4C37-AF4A-3C8254BD07E3}"/>
             </c:ext>
@@ -3774,36 +3642,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3AA8-4C37-AF4A-3C8254BD07E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1946422384"/>
-        <c:axId val="1946411568"/>
+        <c:axId val="125499648"/>
+        <c:axId val="125648896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1946422384"/>
+        <c:axId val="125499648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3838,21 +3695,19 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946411568"/>
+        <c:crossAx val="125648896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1946411568"/>
+        <c:axId val="125648896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3870,7 +3725,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3899,7 +3753,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946422384"/>
+        <c:crossAx val="125499648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3907,7 +3761,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -3921,8 +3775,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -3936,25 +3789,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3982,7 +3825,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3991,12 +3834,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="0"/>
@@ -4046,8 +3887,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E86-4EC1-8DA0-06F49888B2FB}"/>
             </c:ext>
@@ -4102,8 +3942,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2E86-4EC1-8DA0-06F49888B2FB}"/>
             </c:ext>
@@ -4158,36 +3997,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2E86-4EC1-8DA0-06F49888B2FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1946422384"/>
-        <c:axId val="1946411568"/>
+        <c:axId val="125689216"/>
+        <c:axId val="125768832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1946422384"/>
+        <c:axId val="125689216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4222,21 +4050,19 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946411568"/>
+        <c:crossAx val="125768832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1946411568"/>
+        <c:axId val="125768832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4254,7 +4080,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4283,7 +4108,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946422384"/>
+        <c:crossAx val="125689216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4291,7 +4116,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -4305,8 +4130,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -4320,25 +4144,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4366,7 +4180,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4375,12 +4189,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="0"/>
@@ -4430,8 +4242,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1F38-47F9-BE38-0752438B7AB6}"/>
             </c:ext>
@@ -4486,8 +4297,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1F38-47F9-BE38-0752438B7AB6}"/>
             </c:ext>
@@ -4542,36 +4352,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1F38-47F9-BE38-0752438B7AB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1946422384"/>
-        <c:axId val="1946411568"/>
+        <c:axId val="125830272"/>
+        <c:axId val="125831808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1946422384"/>
+        <c:axId val="125830272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4606,21 +4405,19 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946411568"/>
+        <c:crossAx val="125831808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1946411568"/>
+        <c:axId val="125831808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4638,7 +4435,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4667,7 +4463,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946422384"/>
+        <c:crossAx val="125830272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -4675,7 +4471,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -4689,8 +4485,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -4704,25 +4499,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4750,7 +4535,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4759,12 +4544,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="0"/>
@@ -4805,8 +4588,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B0A-460C-9BA8-5D0E3D54E0C4}"/>
             </c:ext>
@@ -4861,8 +4643,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-0B0A-460C-9BA8-5D0E3D54E0C4}"/>
             </c:ext>
@@ -4917,36 +4698,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-0B0A-460C-9BA8-5D0E3D54E0C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1946422384"/>
-        <c:axId val="1946411568"/>
+        <c:axId val="125888768"/>
+        <c:axId val="126042112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1946422384"/>
+        <c:axId val="125888768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4981,21 +4751,19 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946411568"/>
+        <c:crossAx val="126042112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1946411568"/>
+        <c:axId val="126042112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5013,7 +4781,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5042,14 +4809,14 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946422384"/>
+        <c:crossAx val="125888768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -5063,8 +4830,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -5078,7 +4844,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5104,7 +4870,7 @@
         <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85665F02-754E-4F97-AC62-692F12C3049D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85665F02-754E-4F97-AC62-692F12C3049D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5145,7 +4911,7 @@
         <xdr:cNvPr id="4" name="Grafico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E5AB69-028C-4090-83D1-DCDA7B31952F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1E5AB69-028C-4090-83D1-DCDA7B31952F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5183,7 +4949,7 @@
         <xdr:cNvPr id="5" name="Grafico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB51F79-97D5-4553-867B-0070C7559A59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFB51F79-97D5-4553-867B-0070C7559A59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5221,7 +4987,7 @@
         <xdr:cNvPr id="6" name="Grafico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFEE335-5C1B-4152-BA7A-942B58A9F0AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8AFEE335-5C1B-4152-BA7A-942B58A9F0AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5259,7 +5025,7 @@
         <xdr:cNvPr id="7" name="Grafico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99147EF4-EAE2-41E5-B256-9759B8D0E4A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99147EF4-EAE2-41E5-B256-9759B8D0E4A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +5063,7 @@
         <xdr:cNvPr id="8" name="Grafico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581BB997-91FB-4E0E-A9C8-F7B5F5FA7328}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{581BB997-91FB-4E0E-A9C8-F7B5F5FA7328}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5335,7 +5101,7 @@
         <xdr:cNvPr id="9" name="Grafico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E38415-2201-4D27-8269-41D7D9C151D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97E38415-2201-4D27-8269-41D7D9C151D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5373,7 +5139,7 @@
         <xdr:cNvPr id="10" name="Grafico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCC8EB9-7F6D-4017-9FC2-49358486A6FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCCC8EB9-7F6D-4017-9FC2-49358486A6FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5411,7 +5177,7 @@
         <xdr:cNvPr id="11" name="Grafico 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D7A1BAD-5BFC-4782-9AA4-24767E904E86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D7A1BAD-5BFC-4782-9AA4-24767E904E86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5438,23 +5204,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>725277</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>140006</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>119350</xdr:rowOff>
+      <xdr:rowOff>107875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>587567</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2296</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>183615</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF4B671-6DB8-474F-9E5B-241A8B1890DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EF4B671-6DB8-474F-9E5B-241A8B1890DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5475,22 +5241,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>298281</xdr:colOff>
+      <xdr:colOff>298280</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>120359</xdr:rowOff>
+      <xdr:rowOff>120360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>275421</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>504940</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>126236</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4882AA07-9970-4B09-B24E-C17098202F59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4882AA07-9970-4B09-B24E-C17098202F59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5554,7 +5320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5606,7 +5372,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5800,7 +5566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6093,20 +5859,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351464DA-C1FD-4F90-B8EF-3877AE8C241A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A9:K13"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -6115,7 +5881,7 @@
         <v>58.101931771475549</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -6123,7 +5889,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -6131,7 +5897,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -6148,28 +5914,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E02C8E-8587-4B94-82DE-105FC5F151F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="55" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="34.33203125" customWidth="1"/>
+    <col min="13" max="13" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="21">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -6199,9 +5963,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -6243,15 +6007,15 @@
         <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <f>(1-(B36/B37))*100</f>
@@ -6266,13 +6030,13 @@
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="6">
         <v>100</v>
@@ -6287,11 +6051,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="2"/>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -6305,12 +6069,12 @@
         <v>5</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="6">
         <v>15</v>
@@ -6323,9 +6087,9 @@
       </c>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="6">
         <v>10</v>
@@ -6338,12 +6102,12 @@
       </c>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="2"/>
       <c r="B10" s="6"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -6352,9 +6116,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6">
         <v>60</v>
@@ -6367,9 +6131,9 @@
       </c>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="6">
         <v>80</v>
@@ -6382,14 +6146,14 @@
       </c>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="2"/>
       <c r="B14" s="6"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -6401,9 +6165,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="6">
         <v>5000</v>
@@ -6416,9 +6180,9 @@
       </c>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6">
         <v>4000</v>
@@ -6431,12 +6195,12 @@
       </c>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -6453,9 +6217,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6">
         <v>6</v>
@@ -6468,9 +6232,9 @@
       </c>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
@@ -6483,11 +6247,11 @@
       </c>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -6504,9 +6268,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="6">
         <v>15</v>
@@ -6519,9 +6283,9 @@
       </c>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="6">
         <v>16</v>
@@ -6534,11 +6298,11 @@
       </c>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
@@ -6555,9 +6319,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="6">
         <v>30</v>
@@ -6570,9 +6334,9 @@
       </c>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="6">
         <v>20</v>
@@ -6585,13 +6349,13 @@
       </c>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31">
@@ -6601,9 +6365,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32">
@@ -6621,22 +6385,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="6">
         <v>0</v>
@@ -6648,9 +6412,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <f>B37-B35</f>
@@ -6665,9 +6429,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="6">
         <v>27</v>
@@ -6679,14 +6443,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -6697,21 +6461,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3B5200-58CF-498E-834C-4CD9DF998495}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -6721,21 +6485,21 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="21">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
+      <c r="C2" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -6759,7 +6523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -6767,10 +6531,16 @@
         <v>70</v>
       </c>
       <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+      <c r="E3">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -6780,8 +6550,14 @@
       <c r="C4">
         <v>85</v>
       </c>
+      <c r="D4">
+        <v>85</v>
+      </c>
+      <c r="E4">
+        <v>85</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -6791,8 +6567,14 @@
       <c r="C5">
         <v>81</v>
       </c>
+      <c r="D5">
+        <v>81</v>
+      </c>
+      <c r="E5">
+        <v>81</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -6802,8 +6584,14 @@
       <c r="C6">
         <v>72</v>
       </c>
+      <c r="D6">
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <v>72</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -6811,10 +6599,16 @@
         <v>77</v>
       </c>
       <c r="C7">
+        <v>77</v>
+      </c>
+      <c r="D7">
         <v>73</v>
       </c>
+      <c r="E7">
+        <v>73</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -6824,8 +6618,14 @@
       <c r="C8">
         <v>73</v>
       </c>
+      <c r="D8">
+        <v>73</v>
+      </c>
+      <c r="E8">
+        <v>73</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -6835,10 +6635,16 @@
       <c r="C9">
         <v>80</v>
       </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>83</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -6846,10 +6652,16 @@
       <c r="C10">
         <v>80</v>
       </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>60</v>
@@ -6857,8 +6669,14 @@
       <c r="C11">
         <v>60</v>
       </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="21">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -6902,7 +6720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -6913,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -6924,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -6935,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -6946,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -6957,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -6969,7 +6787,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -6980,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>

--- a/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swe\Progetto!\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D435F1-7C3C-4011-BDBD-365A478B8409}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Metriche Software" sheetId="3" r:id="rId2"/>
     <sheet name="Metriche Documenti" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -215,8 +221,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +328,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -351,7 +367,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -360,10 +376,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -405,8 +423,14 @@
                 <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
               </c:ext>
@@ -426,7 +450,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000014-D844-4058-80FC-DE71F337B55A}"/>
             </c:ext>
@@ -457,7 +482,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000015-D844-4058-80FC-DE71F337B55A}"/>
             </c:ext>
@@ -488,7 +514,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000016-D844-4058-80FC-DE71F337B55A}"/>
             </c:ext>
@@ -519,7 +546,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000017-D844-4058-80FC-DE71F337B55A}"/>
             </c:ext>
@@ -550,7 +578,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000018-D844-4058-80FC-DE71F337B55A}"/>
             </c:ext>
@@ -581,7 +610,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-D844-4058-80FC-DE71F337B55A}"/>
             </c:ext>
@@ -612,14 +642,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7EB1-4CA7-8F70-DB164EC1861B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="124809984"/>
         <c:axId val="124811520"/>
       </c:lineChart>
@@ -628,9 +667,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -670,6 +711,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="124811520"/>
@@ -678,6 +720,7 @@
           <c:max val="100"/>
           <c:min val="50"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -695,6 +738,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -731,7 +775,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -762,7 +806,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -783,8 +828,18 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
@@ -813,7 +868,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -822,10 +877,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="0"/>
@@ -869,7 +926,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000047-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -918,7 +976,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000048-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -967,7 +1026,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000049-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1016,7 +1076,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004A-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1065,7 +1126,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004B-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1114,7 +1176,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004C-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1163,7 +1226,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004D-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1228,14 +1292,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004E-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="127587072"/>
         <c:axId val="127588608"/>
       </c:lineChart>
@@ -1244,9 +1317,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1286,6 +1361,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="127588608"/>
@@ -1294,6 +1370,7 @@
           <c:max val="8"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1311,6 +1388,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" vert="horz"/>
@@ -1329,7 +1407,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1360,7 +1438,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -1381,8 +1460,18 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1410,7 +1499,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1419,10 +1508,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="0"/>
@@ -1478,7 +1569,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000047-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1539,7 +1631,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000048-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1600,7 +1693,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000049-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1661,7 +1755,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004A-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1717,12 +1812,13 @@
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004B-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1783,7 +1879,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004C-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1836,7 +1933,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>83</c:v>
@@ -1844,7 +1941,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004D-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1921,7 +2019,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004E-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
@@ -1989,25 +2088,37 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FC36-4511-9C2E-DC60DD7EA2DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="126332288"/>
         <c:axId val="127562880"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="126332288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2047,6 +2158,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="127562880"/>
@@ -2055,6 +2167,7 @@
           <c:max val="90"/>
           <c:min val="60"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2071,6 +2184,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-60000000" vert="horz"/>
@@ -2090,7 +2205,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2121,8 +2236,18 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent2">
+          <a:alpha val="91000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2142,8 +2267,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2176,7 +2311,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2185,10 +2320,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2230,15 +2367,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.384615384615385</c:v>
+                  <c:v>9.5238095238095237</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.76923076923077</c:v>
+                  <c:v>19.047619047619047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7A55-4642-AA04-88F6564AA90A}"/>
             </c:ext>
@@ -2285,22 +2423,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.111111111111116</c:v>
+                  <c:v>7.8947368421052655</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.222222222222221</c:v>
+                  <c:v>15.789473684210531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7A55-4642-AA04-88F6564AA90A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="125305600"/>
         <c:axId val="125307136"/>
       </c:lineChart>
@@ -2309,9 +2456,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2351,6 +2500,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="125307136"/>
@@ -2359,6 +2509,7 @@
           <c:max val="100"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2376,6 +2527,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2412,7 +2564,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -2426,7 +2578,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -2447,8 +2600,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2476,7 +2639,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2485,10 +2648,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="0"/>
@@ -2538,7 +2703,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001B-722D-4251-8C63-934148AF9082}"/>
             </c:ext>
@@ -2609,7 +2775,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001E-722D-4251-8C63-934148AF9082}"/>
             </c:ext>
@@ -2684,14 +2851,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001F-722D-4251-8C63-934148AF9082}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="125364096"/>
         <c:axId val="125365632"/>
       </c:lineChart>
@@ -2700,9 +2876,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2742,6 +2920,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="125365632"/>
@@ -2750,6 +2929,7 @@
           <c:max val="15"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2767,6 +2947,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2803,7 +2984,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -2817,7 +2998,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -2838,8 +3020,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2867,7 +3059,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2876,10 +3068,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2929,7 +3123,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B75-4A3B-89F3-F2C4DE469F9E}"/>
             </c:ext>
@@ -2984,7 +3179,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7028-4C7B-8944-810E133DAA65}"/>
             </c:ext>
@@ -3039,14 +3235,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7028-4C7B-8944-810E133DAA65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="125418496"/>
         <c:axId val="125428480"/>
       </c:lineChart>
@@ -3055,9 +3260,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3097,6 +3304,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="125428480"/>
@@ -3105,6 +3313,7 @@
           <c:max val="5000"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3122,6 +3331,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3158,7 +3368,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -3172,7 +3382,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -3193,8 +3404,18 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3222,7 +3443,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3231,10 +3452,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3267,14 +3490,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-709B-4ACD-B854-730FFA0D4604}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="125461632"/>
         <c:axId val="125463168"/>
       </c:lineChart>
@@ -3283,9 +3515,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3325,6 +3559,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="125463168"/>
@@ -3333,6 +3568,7 @@
           <c:max val="100"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3350,6 +3586,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3386,7 +3623,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -3400,7 +3637,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -3421,8 +3659,18 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3450,7 +3698,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3459,10 +3707,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="0"/>
@@ -3507,12 +3757,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3AA8-4C37-AF4A-3C8254BD07E3}"/>
             </c:ext>
@@ -3587,7 +3838,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3AA8-4C37-AF4A-3C8254BD07E3}"/>
             </c:ext>
@@ -3642,14 +3894,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3AA8-4C37-AF4A-3C8254BD07E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="125499648"/>
         <c:axId val="125648896"/>
       </c:lineChart>
@@ -3658,9 +3919,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3700,6 +3963,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="125648896"/>
@@ -3708,6 +3972,7 @@
           <c:max val="10"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3725,6 +3990,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3761,7 +4027,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -3775,7 +4041,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -3796,8 +4063,18 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3825,7 +4102,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3834,10 +4111,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="0"/>
@@ -3876,18 +4155,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E86-4EC1-8DA0-06F49888B2FB}"/>
             </c:ext>
@@ -3942,7 +4222,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2E86-4EC1-8DA0-06F49888B2FB}"/>
             </c:ext>
@@ -3997,14 +4278,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2E86-4EC1-8DA0-06F49888B2FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="125689216"/>
         <c:axId val="125768832"/>
       </c:lineChart>
@@ -4013,9 +4303,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4055,6 +4347,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="125768832"/>
@@ -4063,6 +4356,7 @@
           <c:max val="20"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4080,6 +4374,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4116,7 +4411,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -4130,7 +4425,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -4151,8 +4447,18 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4180,7 +4486,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4189,10 +4495,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="0"/>
@@ -4242,7 +4550,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1F38-47F9-BE38-0752438B7AB6}"/>
             </c:ext>
@@ -4297,7 +4606,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1F38-47F9-BE38-0752438B7AB6}"/>
             </c:ext>
@@ -4352,14 +4662,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1F38-47F9-BE38-0752438B7AB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="125830272"/>
         <c:axId val="125831808"/>
       </c:lineChart>
@@ -4368,9 +4687,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4410,6 +4731,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="125831808"/>
@@ -4418,6 +4740,7 @@
           <c:max val="100"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4435,6 +4758,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4471,7 +4795,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -4485,7 +4809,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -4506,8 +4831,18 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4535,7 +4870,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4544,10 +4879,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="0"/>
@@ -4588,7 +4925,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B0A-460C-9BA8-5D0E3D54E0C4}"/>
             </c:ext>
@@ -4643,7 +4981,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-0B0A-460C-9BA8-5D0E3D54E0C4}"/>
             </c:ext>
@@ -4698,14 +5037,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-0B0A-460C-9BA8-5D0E3D54E0C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="125888768"/>
         <c:axId val="126042112"/>
       </c:lineChart>
@@ -4714,9 +5062,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4756,6 +5106,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="126042112"/>
@@ -4764,6 +5115,7 @@
           <c:max val="100"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4781,6 +5133,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4816,7 +5169,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
@@ -4830,7 +5183,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -4870,7 +5224,7 @@
         <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85665F02-754E-4F97-AC62-692F12C3049D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85665F02-754E-4F97-AC62-692F12C3049D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4911,7 +5265,7 @@
         <xdr:cNvPr id="4" name="Grafico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1E5AB69-028C-4090-83D1-DCDA7B31952F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E5AB69-028C-4090-83D1-DCDA7B31952F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4949,7 +5303,7 @@
         <xdr:cNvPr id="5" name="Grafico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFB51F79-97D5-4553-867B-0070C7559A59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB51F79-97D5-4553-867B-0070C7559A59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4987,7 +5341,7 @@
         <xdr:cNvPr id="6" name="Grafico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8AFEE335-5C1B-4152-BA7A-942B58A9F0AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFEE335-5C1B-4152-BA7A-942B58A9F0AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5025,7 +5379,7 @@
         <xdr:cNvPr id="7" name="Grafico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99147EF4-EAE2-41E5-B256-9759B8D0E4A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99147EF4-EAE2-41E5-B256-9759B8D0E4A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5063,7 +5417,7 @@
         <xdr:cNvPr id="8" name="Grafico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{581BB997-91FB-4E0E-A9C8-F7B5F5FA7328}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581BB997-91FB-4E0E-A9C8-F7B5F5FA7328}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5101,7 +5455,7 @@
         <xdr:cNvPr id="9" name="Grafico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97E38415-2201-4D27-8269-41D7D9C151D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E38415-2201-4D27-8269-41D7D9C151D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5139,7 +5493,7 @@
         <xdr:cNvPr id="10" name="Grafico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCCC8EB9-7F6D-4017-9FC2-49358486A6FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCC8EB9-7F6D-4017-9FC2-49358486A6FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5177,7 +5531,7 @@
         <xdr:cNvPr id="11" name="Grafico 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D7A1BAD-5BFC-4782-9AA4-24767E904E86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D7A1BAD-5BFC-4782-9AA4-24767E904E86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5204,23 +5558,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>140006</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>286898</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>107875</xdr:rowOff>
+      <xdr:rowOff>80333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2296</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>415429</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>183615</xdr:rowOff>
+      <xdr:rowOff>156073</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EF4B671-6DB8-474F-9E5B-241A8B1890DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF4B671-6DB8-474F-9E5B-241A8B1890DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5246,17 +5600,17 @@
       <xdr:rowOff>120360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504940</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>126236</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>302964</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165254</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4882AA07-9970-4B09-B24E-C17098202F59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4882AA07-9970-4B09-B24E-C17098202F59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5566,7 +5920,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5859,20 +6213,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A9:K13"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -5881,7 +6235,7 @@
         <v>58.101931771475549</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -5889,7 +6243,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -5897,7 +6251,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -5914,21 +6268,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="34.28515625" customWidth="1"/>
+    <col min="13" max="13" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -5963,7 +6319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -5972,11 +6328,11 @@
       </c>
       <c r="C2">
         <f>(1-(C32/C33))*100</f>
-        <v>15.384615384615385</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="D2">
         <f>(1-D32/C33)*100</f>
-        <v>30.76923076923077</v>
+        <v>19.047619047619047</v>
       </c>
       <c r="E2" t="e">
         <f>(1-E32/C33)*100</f>
@@ -6013,7 +6369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -6023,18 +6379,18 @@
       </c>
       <c r="C3">
         <f>(1-(C36/C37))*100</f>
-        <v>11.111111111111116</v>
+        <v>7.8947368421052655</v>
       </c>
       <c r="D3">
         <f>(1-(D36/D37))*100</f>
-        <v>22.222222222222221</v>
+        <v>15.789473684210531</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -6051,11 +6407,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -6072,7 +6428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -6087,7 +6443,7 @@
       </c>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -6102,12 +6458,12 @@
       </c>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="6"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -6116,7 +6472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
@@ -6131,7 +6487,7 @@
       </c>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -6146,12 +6502,12 @@
       </c>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="6"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -6165,7 +6521,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -6180,7 +6536,7 @@
       </c>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -6195,12 +6551,12 @@
       </c>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -6211,13 +6567,13 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -6232,7 +6588,7 @@
       </c>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -6247,28 +6603,28 @@
       </c>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -6283,7 +6639,7 @@
       </c>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -6298,11 +6654,11 @@
       </c>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
@@ -6319,7 +6675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -6334,7 +6690,7 @@
       </c>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
@@ -6349,11 +6705,11 @@
       </c>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>54</v>
       </c>
@@ -6365,18 +6721,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32">
         <f>C33-C31</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <f>C33-D31</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
         <v>35</v>
@@ -6385,20 +6741,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>55</v>
       </c>
@@ -6412,43 +6768,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B36">
         <f>B37-B35</f>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <f>C37-C35</f>
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D36">
         <f>D37-D35</f>
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B37" s="6">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -6461,21 +6817,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A13" zoomScale="83" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -6485,7 +6841,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="21">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6523,7 +6879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -6540,7 +6896,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -6557,7 +6913,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -6574,7 +6930,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -6591,7 +6947,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -6605,10 +6961,10 @@
         <v>73</v>
       </c>
       <c r="E7">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -6625,7 +6981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -6636,13 +6992,13 @@
         <v>80</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -6659,7 +7015,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -6676,7 +7032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="21">
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -6720,7 +7076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -6731,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -6742,7 +7098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -6753,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -6764,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -6775,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -6787,7 +7143,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -6798,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>

--- a/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swe\Progetto!\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D435F1-7C3C-4011-BDBD-365A478B8409}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DE0DA8-53AD-453F-A0C0-A31B8D2AB4EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -842,42 +842,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Errori ortografici</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1473,42 +1438,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Indice di Gulpease</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2280,47 +2210,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Copertura</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> dei requisiti</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2613,42 +2503,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Average Cyclomatic complexity</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3033,42 +2888,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Tempo medio di risposta</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3363,7 +3183,7 @@
         <c:crossAx val="125418496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="200"/>
+        <c:majorUnit val="250"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3417,42 +3237,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Versioni browser supportate</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3672,42 +3457,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Facilità di utilizzo</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4076,42 +3826,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Facilità apprendimento funzionalità</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4460,42 +4175,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Densità di failure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4790,7 +4470,7 @@
         <c:crossAx val="125830272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5252,13 +4932,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>380841</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>54905</xdr:rowOff>
+      <xdr:rowOff>54906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>314908</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>147968</xdr:rowOff>
+      <xdr:colOff>416361</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>11706</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5294,9 +4974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>493087</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>178792</xdr:rowOff>
+      <xdr:colOff>554514</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>29690</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5332,9 +5012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>537170</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>35717</xdr:rowOff>
+      <xdr:colOff>607288</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>67089</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5370,9 +5050,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>305041</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>143195</xdr:rowOff>
+      <xdr:colOff>406494</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>6932</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5402,15 +5082,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>391026</xdr:colOff>
+      <xdr:colOff>391025</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>80210</xdr:rowOff>
+      <xdr:rowOff>80209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>487039</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>5638</xdr:rowOff>
+      <xdr:colOff>548465</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>37009</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5445,10 +5125,10 @@
       <xdr:rowOff>120315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>567249</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>45743</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27767</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>77115</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5484,9 +5164,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>366722</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>35717</xdr:rowOff>
+      <xdr:colOff>426546</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>67089</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5522,9 +5202,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>757750</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>35717</xdr:rowOff>
+      <xdr:colOff>819177</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>67089</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5558,16 +5238,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>286898</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>743637</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>80333</xdr:rowOff>
+      <xdr:rowOff>52790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>415429</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>156073</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>158370</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82627</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5674,7 +5354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5726,7 +5406,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6271,8 +5951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6820,8 +6500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="83" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swe\Progetto!\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DE0DA8-53AD-453F-A0C0-A31B8D2AB4EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6399CAA6-E939-4586-B973-20BBE7687F85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2257,10 +2257,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5238095238095237</c:v>
+                  <c:v>9.0909090909090935</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.047619047619047</c:v>
+                  <c:v>18.181818181818176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2313,10 +2313,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8947368421052655</c:v>
+                  <c:v>6.8181818181818237</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.789473684210531</c:v>
+                  <c:v>13.636363636363635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5951,8 +5951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M96" sqref="M96"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6008,11 +6008,11 @@
       </c>
       <c r="C2">
         <f>(1-(C32/C33))*100</f>
-        <v>9.5238095238095237</v>
+        <v>9.0909090909090935</v>
       </c>
       <c r="D2">
         <f>(1-D32/C33)*100</f>
-        <v>19.047619047619047</v>
+        <v>18.181818181818176</v>
       </c>
       <c r="E2" t="e">
         <f>(1-E32/C33)*100</f>
@@ -6059,11 +6059,11 @@
       </c>
       <c r="C3">
         <f>(1-(C36/C37))*100</f>
-        <v>7.8947368421052655</v>
+        <v>6.8181818181818237</v>
       </c>
       <c r="D3">
         <f>(1-(D36/D37))*100</f>
-        <v>15.789473684210531</v>
+        <v>13.636363636363635</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -6408,11 +6408,11 @@
       <c r="B32" s="6"/>
       <c r="C32">
         <f>C33-C31</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32">
         <f>C33-D31</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
         <v>35</v>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="B33" s="6"/>
       <c r="C33">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -6454,15 +6454,15 @@
       </c>
       <c r="B36">
         <f>B37-B35</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C36">
         <f>C37-C35</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D36">
         <f>D37-D35</f>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -6470,13 +6470,13 @@
         <v>57</v>
       </c>
       <c r="B37" s="6">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C37">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D37">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">

--- a/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swe\Progetto!\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SWE\RepoDocumentazione\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6399CAA6-E939-4586-B973-20BBE7687F85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8471055F-8B4D-492B-AFDE-1BDB2F6D9C96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
-  <si>
-    <t>Studio di fattibilità</t>
-  </si>
-  <si>
-    <t>Glossario</t>
-  </si>
-  <si>
-    <t>Media verbali</t>
-  </si>
-  <si>
-    <t>Incremento 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>Incremento 2</t>
   </si>
@@ -92,37 +80,7 @@
     <t>Errori ortografici</t>
   </si>
   <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>Analisi dei requisiti</t>
-  </si>
-  <si>
-    <t>Piano di progetto</t>
-  </si>
-  <si>
-    <t>Piano di qualifica</t>
-  </si>
-  <si>
-    <t>Norme di progetto</t>
-  </si>
-  <si>
-    <t>Accettazione</t>
-  </si>
-  <si>
-    <t>Incremento 0</t>
-  </si>
-  <si>
     <t>Metriche Software</t>
-  </si>
-  <si>
-    <t>RP</t>
-  </si>
-  <si>
-    <t>RQ</t>
-  </si>
-  <si>
-    <t>RA</t>
   </si>
   <si>
     <t>chrome, edge, mozilla</t>
@@ -158,9 +116,6 @@
     <t>calcolo per gulpease:</t>
   </si>
   <si>
-    <t>fase di analisi</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -171,9 +126,6 @@
   </si>
   <si>
     <t>linee codice</t>
-  </si>
-  <si>
-    <t>Programmazione TB</t>
   </si>
   <si>
     <t>% Versioni browser supportate</t>
@@ -212,10 +164,43 @@
     <t>REQUISITI funzionali totali</t>
   </si>
   <si>
-    <t>II</t>
+    <t>Analisi</t>
   </si>
   <si>
-    <t>TB</t>
+    <t>Incremento I</t>
+  </si>
+  <si>
+    <t>Incremento II</t>
+  </si>
+  <si>
+    <t>Technology Baseline</t>
+  </si>
+  <si>
+    <t>AdR</t>
+  </si>
+  <si>
+    <t>PdP</t>
+  </si>
+  <si>
+    <t>PdQ</t>
+  </si>
+  <si>
+    <t>Glo</t>
+  </si>
+  <si>
+    <t>NdP</t>
+  </si>
+  <si>
+    <t>SdF</t>
+  </si>
+  <si>
+    <t>Ottimale</t>
+  </si>
+  <si>
+    <t>Accettabile</t>
+  </si>
+  <si>
+    <t>Verbali</t>
   </si>
 </sst>
 </file>
@@ -857,35 +842,47 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Analisi dei requisiti</c:v>
+                  <c:v>AdR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>RR</c:v>
+              <c:f>'Metriche Documenti'!$B$12:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>RP</c:v>
+                  <c:v>Technology Baseline</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento I</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$13:$C$13</c:f>
+              <c:f>'Metriche Documenti'!$B$13:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -907,35 +904,47 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Piano di progetto</c:v>
+                  <c:v>PdP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>RR</c:v>
+              <c:f>'Metriche Documenti'!$B$12:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>RP</c:v>
+                  <c:v>Technology Baseline</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento I</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$14:$C$14</c:f>
+              <c:f>'Metriche Documenti'!$B$14:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -957,41 +966,53 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Piano di qualifica</c:v>
+                  <c:v>PdQ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>RR</c:v>
+              <c:f>'Metriche Documenti'!$B$12:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>RP</c:v>
+                  <c:v>Technology Baseline</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento I</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$15:$C$15</c:f>
+              <c:f>'Metriche Documenti'!$B$15:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000049-5945-436F-ACF0-44F9517A41AF}"/>
@@ -1007,41 +1028,53 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Glossario</c:v>
+                  <c:v>Glo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>RR</c:v>
+              <c:f>'Metriche Documenti'!$B$12:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>RP</c:v>
+                  <c:v>Technology Baseline</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento I</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$16:$C$16</c:f>
+              <c:f>'Metriche Documenti'!$B$16:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004A-5945-436F-ACF0-44F9517A41AF}"/>
@@ -1057,41 +1090,53 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Norme di progetto</c:v>
+                  <c:v>NdP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>RR</c:v>
+              <c:f>'Metriche Documenti'!$B$12:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>RP</c:v>
+                  <c:v>Technology Baseline</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento I</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$17:$C$17</c:f>
+              <c:f>'Metriche Documenti'!$B$17:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004B-5945-436F-ACF0-44F9517A41AF}"/>
@@ -1107,35 +1152,47 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Studio di fattibilità</c:v>
+                  <c:v>SdF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>RR</c:v>
+              <c:f>'Metriche Documenti'!$B$12:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>RP</c:v>
+                  <c:v>Technology Baseline</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento I</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$18:$C$18</c:f>
+              <c:f>'Metriche Documenti'!$B$18:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1157,110 +1214,56 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Media verbali</c:v>
+                  <c:v>Verbali</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>RR</c:v>
+              <c:f>'Metriche Documenti'!$B$12:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>RP</c:v>
+                  <c:v>Technology Baseline</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento I</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Documenti'!$B$19:$C$19</c:f>
+              <c:f>'Metriche Documenti'!$B$19:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004D-5945-436F-ACF0-44F9517A41AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metriche Documenti'!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Accettazione</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:alpha val="0"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metriche Documenti'!$B$12:$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>RR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>RP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metriche Documenti'!$B$20:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000004E-5945-436F-ACF0-44F9517A41AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1332,7 +1335,6 @@
         <c:axId val="127588608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1360,14 +1362,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="800"/>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="127587072"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1406,6 +1408,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1440,7 +1447,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0971900822405158E-2"/>
+          <c:y val="4.2547437194561478E-2"/>
+          <c:w val="0.74897651221488115"/>
+          <c:h val="0.86772285019708262"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1453,27 +1470,41 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Analisi dei requisiti</c:v>
+                  <c:v>AdR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>fase di analisi</c:v>
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>II</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>II</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1499,7 +1530,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000047-5945-436F-ACF0-44F9517A41AF}"/>
@@ -1515,27 +1546,36 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Piano di progetto</c:v>
+                  <c:v>PdP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>fase di analisi</c:v>
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>II</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>II</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1561,7 +1601,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000048-5945-436F-ACF0-44F9517A41AF}"/>
@@ -1577,27 +1617,36 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Piano di qualifica</c:v>
+                  <c:v>PdQ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>fase di analisi</c:v>
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>II</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>II</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1623,7 +1672,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000049-5945-436F-ACF0-44F9517A41AF}"/>
@@ -1639,27 +1688,36 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Glossario</c:v>
+                  <c:v>Glo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>fase di analisi</c:v>
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>II</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>II</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1685,7 +1743,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004A-5945-436F-ACF0-44F9517A41AF}"/>
@@ -1701,27 +1759,36 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Norme di progetto</c:v>
+                  <c:v>NdP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>fase di analisi</c:v>
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>II</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>II</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1747,7 +1814,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004B-5945-436F-ACF0-44F9517A41AF}"/>
@@ -1763,27 +1830,36 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Studio di fattibilità</c:v>
+                  <c:v>SdF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>fase di analisi</c:v>
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>II</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>II</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1809,7 +1885,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004C-5945-436F-ACF0-44F9517A41AF}"/>
@@ -1825,27 +1901,36 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Media verbali</c:v>
+                  <c:v>Verbali</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>fase di analisi</c:v>
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>II</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>II</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1871,7 +1956,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000004D-5945-436F-ACF0-44F9517A41AF}"/>
@@ -1887,26 +1972,21 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valore ottimale</c:v>
+                  <c:v>Ottimale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:alpha val="0"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1914,16 +1994,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>fase di analisi</c:v>
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>II</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>II</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1965,34 +2045,40 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valore accettabile</c:v>
+                  <c:v>Accettabile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="25400" cap="sq">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+              <a:tailEnd type="none"/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Documenti'!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>fase di analisi</c:v>
+                  <c:v>Analisi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>II</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>II</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2047,7 +2133,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2122,19 +2208,29 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="800"/>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="126332288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82784920610388679"/>
+          <c:y val="0.14052044926682572"/>
+          <c:w val="0.16993293869481491"/>
+          <c:h val="0.67254371543591784"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2171,11 +2267,7 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="accent2">
-          <a:alpha val="91000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
     </a:ln>
   </c:spPr>
   <c:txPr>
@@ -2212,7 +2304,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9169537646964763E-2"/>
+          <c:y val="5.6576536766423768E-2"/>
+          <c:w val="0.64738052906743526"/>
+          <c:h val="0.8185985857939807"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2236,13 +2338,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2292,13 +2394,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2366,21 +2468,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -2427,21 +2519,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -2449,11 +2531,52 @@
         <c:crossAx val="125305600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70483550653406801"/>
+          <c:y val="0.23108981817750762"/>
+          <c:w val="0.19395724527854624"/>
+          <c:h val="0.768167743617995"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
@@ -2471,12 +2594,17 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="800"/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -2505,7 +2633,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10695581056881208"/>
+          <c:y val="7.0531617552022752E-2"/>
+          <c:w val="0.54266620041630587"/>
+          <c:h val="0.79262593705570639"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2529,13 +2667,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2558,7 +2696,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001B-722D-4251-8C63-934148AF9082}"/>
@@ -2580,20 +2718,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
-                <a:srgbClr val="002060"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2601,13 +2736,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2652,24 +2787,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2677,13 +2805,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2755,7 +2883,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2833,19 +2961,29 @@
         </c:txPr>
         <c:crossAx val="125364096"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66499510952209528"/>
+          <c:y val="6.7185783410882771E-2"/>
+          <c:w val="0.18963550630038922"/>
+          <c:h val="0.81433220644306581"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr/>
+            <a:defRPr sz="800"/>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
         </a:p>
@@ -2856,6 +2994,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2890,7 +3033,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11618690424404832"/>
+          <c:y val="7.0369786427446332E-2"/>
+          <c:w val="0.44072109868424042"/>
+          <c:h val="0.78122501859988802"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2914,13 +3067,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2943,7 +3096,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B75-4A3B-89F3-F2C4DE469F9E}"/>
@@ -2964,19 +3117,27 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Software'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3020,19 +3181,32 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Software'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3104,7 +3278,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3182,19 +3356,29 @@
         </c:txPr>
         <c:crossAx val="125418496"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="250"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61310420585324299"/>
+          <c:y val="4.8987345024019913E-2"/>
+          <c:w val="0.21846614204019274"/>
+          <c:h val="0.79966925696658364"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr/>
+            <a:defRPr sz="800"/>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
         </a:p>
@@ -3205,6 +3389,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3257,6 +3446,23 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Technology Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Incremento II</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Metriche Software'!$B$5:$D$5</c:f>
@@ -3402,8 +3608,9 @@
         </c:txPr>
         <c:crossAx val="125461632"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3414,7 +3621,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr/>
+            <a:defRPr sz="800"/>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
         </a:p>
@@ -3425,6 +3632,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3483,13 +3695,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3512,7 +3724,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3AA8-4C37-AF4A-3C8254BD07E3}"/>
@@ -3534,24 +3746,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3559,13 +3764,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3609,19 +3814,32 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Software'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3693,7 +3911,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3771,19 +3989,29 @@
         </c:txPr>
         <c:crossAx val="125499648"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73520871285330536"/>
+          <c:y val="0.10917178062121938"/>
+          <c:w val="0.17030118743130965"/>
+          <c:h val="0.80254670550201557"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr/>
+            <a:defRPr sz="800"/>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
         </a:p>
@@ -3794,6 +4022,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3828,7 +4061,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11615800871335648"/>
+          <c:y val="6.6721208986396413E-2"/>
+          <c:w val="0.51693585032316625"/>
+          <c:h val="0.792568202973846"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -3852,13 +4095,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3881,7 +4124,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2E86-4EC1-8DA0-06F49888B2FB}"/>
@@ -3902,19 +4145,32 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Software'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3958,19 +4214,32 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Software'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4120,19 +4389,42 @@
         </c:txPr>
         <c:crossAx val="125689216"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66335573515654289"/>
+          <c:y val="0.11179169609898237"/>
+          <c:w val="0.2091506721967557"/>
+          <c:h val="0.78854725910515255"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr/>
+            <a:defRPr sz="800"/>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
         </a:p>
@@ -4143,6 +4435,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -4201,13 +4498,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4251,19 +4548,36 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Software'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4307,19 +4621,32 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Software'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4391,7 +4718,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4469,19 +4796,29 @@
         </c:txPr>
         <c:crossAx val="125830272"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72047564202643644"/>
+          <c:y val="0.11414578639490104"/>
+          <c:w val="0.17769433850673358"/>
+          <c:h val="0.71670804286090128"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr/>
+            <a:defRPr sz="800"/>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
         </a:p>
@@ -4492,6 +4829,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -4524,42 +4866,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Comprensione del codice</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4585,13 +4892,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4626,19 +4933,32 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Software'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4682,19 +5002,32 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Metriche Software'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Programmazione TB</c:v>
+                  <c:v>Technology Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Incremento 1</c:v>
+                  <c:v>Incremento I</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incremento 2</c:v>
+                  <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4766,7 +5099,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4844,7 +5177,7 @@
         </c:txPr>
         <c:crossAx val="125888768"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4855,7 +5188,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr/>
+            <a:defRPr sz="800"/>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
         </a:p>
@@ -4866,6 +5199,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -4930,15 +5268,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>380841</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>54906</xdr:rowOff>
+      <xdr:colOff>380842</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>416361</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>11706</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>387569</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85396</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4968,15 +5306,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>397074</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>72890</xdr:rowOff>
+      <xdr:colOff>55488</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>137949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>554514</xdr:colOff>
+      <xdr:colOff>212928</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>29690</xdr:rowOff>
+      <xdr:rowOff>23121</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5007,14 +5345,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>551448</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>110289</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>177361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>607288</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>67089</xdr:rowOff>
+      <xdr:rowOff>67088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5045,14 +5383,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>370974</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>50132</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>72257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>406494</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>6932</xdr:rowOff>
+      <xdr:rowOff>6930</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5083,8 +5421,8 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>391025</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>80209</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -5121,14 +5459,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>581527</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>120315</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>78826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>27767</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>77115</xdr:rowOff>
+      <xdr:rowOff>77113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5159,14 +5497,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>391026</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>110289</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>426546</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>67089</xdr:rowOff>
+      <xdr:rowOff>67088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5197,14 +5535,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>661737</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>110289</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>177362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>819177</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>67089</xdr:rowOff>
+      <xdr:rowOff>67088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5238,16 +5576,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>743637</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>52790</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>520293</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>158370</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>82627</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>782422</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32843</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5258,7 +5596,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5281,9 +5621,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>302964</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>165254</xdr:rowOff>
+      <xdr:colOff>305146</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>116157</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5897,43 +6237,43 @@
   <dimension ref="A9:K13"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <f>89 + ((300*D11) -(10*D12))/D13</f>
         <v>58.101931771475549</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>831</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7">
         <v>55000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>9732</v>
@@ -5951,57 +6291,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="34.33203125" customWidth="1"/>
+    <col min="13" max="13" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -6043,15 +6383,15 @@
         <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <f>(1-(B36/B37))*100</f>
@@ -6066,13 +6406,21 @@
         <v>13.636363636363635</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6">
         <v>100</v>
@@ -6084,16 +6432,16 @@
         <v>100</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -6105,12 +6453,12 @@
         <v>5</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B8" s="6">
         <v>15</v>
@@ -6123,9 +6471,9 @@
       </c>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6">
         <v>10</v>
@@ -6138,23 +6486,23 @@
       </c>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="6"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2"/>
       <c r="M11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6">
         <v>60</v>
@@ -6167,9 +6515,9 @@
       </c>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B13" s="6">
         <v>80</v>
@@ -6182,14 +6530,14 @@
       </c>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="6"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -6201,9 +6549,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6">
         <v>5000</v>
@@ -6216,9 +6564,9 @@
       </c>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B17" s="6">
         <v>4000</v>
@@ -6231,14 +6579,14 @@
       </c>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
@@ -6250,12 +6598,12 @@
         <v>3</v>
       </c>
       <c r="M19" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B20" s="6">
         <v>6</v>
@@ -6268,9 +6616,9 @@
       </c>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
@@ -6283,13 +6631,13 @@
       </c>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2">
         <v>10</v>
@@ -6301,12 +6649,12 @@
         <v>4</v>
       </c>
       <c r="M23" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B24" s="6">
         <v>15</v>
@@ -6319,9 +6667,9 @@
       </c>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B25" s="6">
         <v>16</v>
@@ -6334,13 +6682,13 @@
       </c>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
@@ -6352,12 +6700,12 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="B28" s="6">
         <v>30</v>
@@ -6370,9 +6718,9 @@
       </c>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B29" s="6">
         <v>20</v>
@@ -6385,13 +6733,13 @@
       </c>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31">
@@ -6401,9 +6749,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32">
@@ -6415,28 +6763,28 @@
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B35" s="6">
         <v>0</v>
@@ -6448,9 +6796,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <f>B37-B35</f>
@@ -6465,9 +6813,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B37" s="6">
         <v>44</v>
@@ -6479,14 +6827,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -6500,18 +6848,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -6521,47 +6869,47 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>70</v>
@@ -6576,9 +6924,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>65</v>
@@ -6593,9 +6941,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>67</v>
@@ -6610,9 +6958,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>71</v>
@@ -6627,9 +6975,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>77</v>
@@ -6644,9 +6992,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>73</v>
@@ -6661,9 +7009,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>70</v>
@@ -6678,9 +7026,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -6695,9 +7043,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>60</v>
@@ -6712,53 +7060,47 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6766,10 +7108,16 @@
       <c r="C13">
         <v>0</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6777,10 +7125,16 @@
       <c r="C14">
         <v>0</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -6788,21 +7142,33 @@
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>0</v>
       </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6810,10 +7176,16 @@
       <c r="C17">
         <v>0</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6821,29 +7193,33 @@
       <c r="C18">
         <v>0</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
+++ b/DocEsterna/PianoDiQualifica/Images/graficiGulpease nuovo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SWE\RepoDocumentazione\CodeBusters-Docs\DocEsterna\PianoDiQualifica\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8471055F-8B4D-492B-AFDE-1BDB2F6D9C96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722780BF-EABC-4F33-9B63-A0A82AE81A09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>Tempo medio di risposta in ms</t>
   </si>
   <si>
-    <t>Valore ottimale</t>
-  </si>
-  <si>
     <t>Valore accettabile</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Verbali</t>
+  </si>
+  <si>
+    <t>Valore limite ottimale</t>
   </si>
 </sst>
 </file>
@@ -2309,9 +2309,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.9169537646964763E-2"/>
-          <c:y val="5.6576536766423768E-2"/>
-          <c:w val="0.64738052906743526"/>
+          <c:x val="6.673201117855615E-2"/>
+          <c:y val="5.6576286773307422E-2"/>
+          <c:w val="0.37681941094003601"/>
           <c:h val="0.8185985857939807"/>
         </c:manualLayout>
       </c:layout>
@@ -2334,16 +2334,13 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -2351,17 +2348,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$2:$D$2</c:f>
+              <c:f>'Metriche Software'!$B$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>9.0909090909090935</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>18.181818181818176</c:v>
                 </c:pt>
               </c:numCache>
@@ -2390,16 +2384,13 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -2407,17 +2398,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$3:$D$3</c:f>
+              <c:f>'Metriche Software'!$B$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>6.8181818181818237</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>13.636363636363635</c:v>
                 </c:pt>
               </c:numCache>
@@ -2530,7 +2518,7 @@
         </c:txPr>
         <c:crossAx val="125305600"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
       </c:valAx>
       <c:spPr>
@@ -2571,9 +2559,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70483550653406801"/>
-          <c:y val="0.23108981817750762"/>
-          <c:w val="0.19395724527854624"/>
+          <c:x val="0.46839860358914748"/>
+          <c:y val="0.10431381552719038"/>
+          <c:w val="0.22564668839953259"/>
           <c:h val="0.768167743617995"/>
         </c:manualLayout>
       </c:layout>
@@ -2640,7 +2628,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.10695581056881208"/>
           <c:y val="7.0531617552022752E-2"/>
-          <c:w val="0.54266620041630587"/>
+          <c:w val="0.39247905877359812"/>
           <c:h val="0.79262593705570639"/>
         </c:manualLayout>
       </c:layout>
@@ -2663,16 +2651,13 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -2680,17 +2665,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$7:$D$7</c:f>
+              <c:f>'Metriche Software'!$B$7:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2730,18 +2712,34 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5B70-4915-A089-6AF03F38B44B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -2749,17 +2747,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$8:$D$8</c:f>
+              <c:f>'Metriche Software'!$B$8:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -2781,7 +2776,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valore ottimale</c:v>
+                  <c:v>Valore limite ottimale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2801,16 +2796,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -2818,17 +2810,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$9:$D$9</c:f>
+              <c:f>'Metriche Software'!$B$9:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -2885,10 +2874,7 @@
             <a:pPr>
               <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2971,9 +2957,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66499510952209528"/>
-          <c:y val="6.7185783410882771E-2"/>
-          <c:w val="0.18963550630038922"/>
+          <c:x val="0.52691587365380554"/>
+          <c:y val="4.6069517456956872E-2"/>
+          <c:w val="0.23810747876679678"/>
           <c:h val="0.81433220644306581"/>
         </c:manualLayout>
       </c:layout>
@@ -3040,7 +3026,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.11618690424404832"/>
           <c:y val="7.0369786427446332E-2"/>
-          <c:w val="0.44072109868424042"/>
+          <c:w val="0.38308366548630862"/>
           <c:h val="0.78122501859988802"/>
         </c:manualLayout>
       </c:layout>
@@ -3063,16 +3049,13 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -3080,17 +3063,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$15:$D$15</c:f>
+              <c:f>'Metriche Software'!$B$15:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
@@ -3118,7 +3098,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225">
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
@@ -3127,16 +3112,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -3144,17 +3126,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$16:$D$16</c:f>
+              <c:f>'Metriche Software'!$B$16:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3176,7 +3155,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valore ottimale</c:v>
+                  <c:v>Valore limite ottimale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3196,16 +3175,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -3213,17 +3189,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$17:$D$17</c:f>
+              <c:f>'Metriche Software'!$B$17:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3280,10 +3253,7 @@
             <a:pPr>
               <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3366,8 +3336,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.61310420585324299"/>
-          <c:y val="4.8987345024019913E-2"/>
+          <c:x val="0.51223869781662124"/>
+          <c:y val="6.1781851647191986E-2"/>
           <c:w val="0.21846614204019274"/>
           <c:h val="0.79966925696658364"/>
         </c:manualLayout>
@@ -3428,7 +3398,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3544269953038194E-2"/>
+          <c:y val="0.12963115898793048"/>
+          <c:w val="0.35372696244300561"/>
+          <c:h val="0.59698535641145323"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -3448,16 +3428,13 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$4:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -3465,17 +3442,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$5:$D$5</c:f>
+              <c:f>'Metriche Software'!$B$5:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -3532,10 +3506,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3615,6 +3586,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44114260060001259"/>
+          <c:y val="0.11306676515046771"/>
+          <c:w val="0.20724212544665277"/>
+          <c:h val="0.64423531071113405"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" vert="horz"/>
@@ -3671,7 +3652,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7107778915631628E-2"/>
+          <c:y val="7.6599655219304216E-2"/>
+          <c:w val="0.35568845271750271"/>
+          <c:h val="0.77478495071741582"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -3691,16 +3682,13 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -3708,17 +3696,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$19:$D$19</c:f>
+              <c:f>'Metriche Software'!$B$19:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3760,16 +3745,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -3777,17 +3759,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$20:$D$20</c:f>
+              <c:f>'Metriche Software'!$B$20:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -3809,7 +3788,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valore ottimale</c:v>
+                  <c:v>Valore limite ottimale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3829,16 +3808,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -3846,17 +3822,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$21:$D$21</c:f>
+              <c:f>'Metriche Software'!$B$21:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3999,8 +3972,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73520871285330536"/>
-          <c:y val="0.10917178062121938"/>
+          <c:x val="0.45661281698091388"/>
+          <c:y val="8.1317561741232475E-2"/>
           <c:w val="0.17030118743130965"/>
           <c:h val="0.80254670550201557"/>
         </c:manualLayout>
@@ -4068,7 +4041,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.11615800871335648"/>
           <c:y val="6.6721208986396413E-2"/>
-          <c:w val="0.51693585032316625"/>
+          <c:w val="0.38733268336489624"/>
           <c:h val="0.792568202973846"/>
         </c:manualLayout>
       </c:layout>
@@ -4091,16 +4064,13 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$22:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -4108,17 +4078,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$23:$D$23</c:f>
+              <c:f>'Metriche Software'!$B$23:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -4137,6 +4104,69 @@
           <c:tx>
             <c:strRef>
               <c:f>'Metriche Software'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valore limite ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metriche Software'!$B$22:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Incremento I</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Incremento II</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metriche Software'!$B$24:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E86-4EC1-8DA0-06F49888B2FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metriche Software'!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4160,16 +4190,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$22:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -4177,86 +4204,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$24:$D$24</c:f>
+              <c:f>'Metriche Software'!$B$25:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E86-4EC1-8DA0-06F49888B2FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metriche Software'!$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Valore ottimale</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Incremento I</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Incremento II</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metriche Software'!$B$25:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
@@ -4311,12 +4266,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4390,7 +4342,7 @@
         <c:crossAx val="125689216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="4"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4412,10 +4364,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66335573515654289"/>
-          <c:y val="0.11179169609898237"/>
-          <c:w val="0.2091506721967557"/>
-          <c:h val="0.78854725910515255"/>
+          <c:x val="0.52175244849553681"/>
+          <c:y val="0.11735510997810746"/>
+          <c:w val="0.29065577712914192"/>
+          <c:h val="0.81504723897026587"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4494,16 +4446,13 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -4511,17 +4460,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$27:$D$27</c:f>
+              <c:f>'Metriche Software'!$B$27:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4567,16 +4513,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -4584,17 +4527,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$28:$D$28</c:f>
+              <c:f>'Metriche Software'!$B$28:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -4616,7 +4556,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valore ottimale</c:v>
+                  <c:v>Valore limite ottimale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4636,16 +4576,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -4653,17 +4590,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$29:$D$29</c:f>
+              <c:f>'Metriche Software'!$B$29:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -4888,16 +4822,13 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -4905,10 +4836,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$11:$D$11</c:f>
+              <c:f>'Metriche Software'!$B$11:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4948,16 +4879,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -4965,17 +4893,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$12:$D$12</c:f>
+              <c:f>'Metriche Software'!$B$12:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -4997,7 +4922,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valore ottimale</c:v>
+                  <c:v>Valore limite ottimale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5017,16 +4942,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Metriche Software'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Technology Baseline</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>'Metriche Software'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>Incremento I</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>Incremento II</c:v>
                 </c:pt>
               </c:strCache>
@@ -5034,17 +4956,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metriche Software'!$B$13:$D$13</c:f>
+              <c:f>'Metriche Software'!$B$13:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -5268,15 +5187,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>380842</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>6569</xdr:rowOff>
+      <xdr:colOff>290638</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>30918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387569</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>85396</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>300321</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>109745</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5305,16 +5224,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>55488</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>137949</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>774761</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>212928</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>23121</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76045</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>89957</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5343,16 +5262,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>551448</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>177361</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>784842</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>178433</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>607288</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>67088</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>120862</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>180215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5382,15 +5301,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>370974</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>72257</xdr:rowOff>
+      <xdr:colOff>181460</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>140246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>406494</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>6930</xdr:rowOff>
+      <xdr:colOff>216980</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>74919</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5419,16 +5338,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>391025</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>118241</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>202350</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>18848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>548465</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>37009</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>242247</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>65382</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5457,16 +5376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581527</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>78826</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>282302</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>96543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>27767</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>77113</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>484488</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>63029</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6289,10 +6208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6304,535 +6223,449 @@
     <col min="13" max="13" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>45</v>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <f>(1-(B32/B33))*100</f>
+        <v>9.0909090909090935</v>
+      </c>
+      <c r="C2">
+        <f>(1-C32/B33)*100</f>
+        <v>18.181818181818176</v>
+      </c>
+      <c r="D2" t="e">
+        <f>(1-D32/B33)*100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2" t="e">
+        <f>(1-E32/B33)*100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2">
+        <f>(1-F32/B33)*100</f>
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <f>(1-G32/B33)*100</f>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <f>(1-H32/B33)*100</f>
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <f>(1-I32/B33)*100</f>
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <f>(1-J32/B33)*100</f>
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>(1-(C32/C33))*100</f>
-        <v>9.0909090909090935</v>
-      </c>
-      <c r="D2">
-        <f>(1-D32/C33)*100</f>
-        <v>18.181818181818176</v>
-      </c>
-      <c r="E2" t="e">
-        <f>(1-E32/C33)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" t="e">
-        <f>(1-F32/C33)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G2">
-        <f>(1-G32/C33)*100</f>
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <f>(1-H32/C33)*100</f>
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <f>(1-I32/C33)*100</f>
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <f>(1-J32/C33)*100</f>
-        <v>100</v>
-      </c>
-      <c r="K2">
-        <f>(1-K32/C33)*100</f>
-        <v>100</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="B3">
         <f>(1-(B36/B37))*100</f>
-        <v>0</v>
+        <v>6.8181818181818237</v>
       </c>
       <c r="C3">
         <f>(1-(C36/C37))*100</f>
-        <v>6.8181818181818237</v>
-      </c>
-      <c r="D3">
-        <f>(1-(D36/D37))*100</f>
         <v>13.636363636363635</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="9" t="s">
-        <v>45</v>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>100</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
+      <c r="B7">
+        <v>4</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="6">
+        <v>32</v>
+      </c>
+      <c r="B8">
         <v>15</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="M8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="6">
+        <v>54</v>
+      </c>
+      <c r="B9">
         <v>10</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="M9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="M10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="6">
+        <v>32</v>
+      </c>
+      <c r="B12">
         <v>60</v>
       </c>
       <c r="C12">
         <v>60</v>
       </c>
-      <c r="D12">
-        <v>60</v>
-      </c>
-      <c r="M12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="6">
+        <v>54</v>
+      </c>
+      <c r="B13">
         <v>80</v>
       </c>
       <c r="C13">
         <v>80</v>
       </c>
-      <c r="D13">
-        <v>80</v>
-      </c>
-      <c r="M13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="M14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
+      <c r="B15">
+        <v>140</v>
       </c>
       <c r="C15">
-        <v>140</v>
-      </c>
-      <c r="D15">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="6">
+        <v>32</v>
+      </c>
+      <c r="B16">
         <v>5000</v>
       </c>
       <c r="C16">
         <v>5000</v>
       </c>
-      <c r="D16">
-        <v>5000</v>
-      </c>
-      <c r="M16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="6">
+        <v>54</v>
+      </c>
+      <c r="B17">
         <v>4000</v>
       </c>
       <c r="C17">
         <v>4000</v>
       </c>
-      <c r="D17">
-        <v>4000</v>
-      </c>
-      <c r="M17" s="8"/>
+      <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="M18" s="8"/>
+      <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6">
-        <v>0</v>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
         <v>3</v>
       </c>
-      <c r="M19" t="s">
+      <c r="L19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="6">
+        <v>32</v>
+      </c>
+      <c r="B20">
         <v>6</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="M20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="6">
+        <v>54</v>
+      </c>
+      <c r="B21">
         <v>5</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="M21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2">
-        <v>10</v>
+      <c r="B23">
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
         <v>4</v>
       </c>
-      <c r="M23" t="s">
+      <c r="L23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="6">
+        <v>54</v>
+      </c>
+      <c r="B24">
         <v>15</v>
       </c>
       <c r="C24">
         <v>15</v>
       </c>
-      <c r="D24">
-        <v>15</v>
-      </c>
-      <c r="M24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25">
         <v>16</v>
       </c>
       <c r="C25">
         <v>16</v>
       </c>
-      <c r="D25">
-        <v>16</v>
-      </c>
-      <c r="M25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="L27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="6">
+        <v>32</v>
+      </c>
+      <c r="B28">
         <v>30</v>
       </c>
       <c r="C28">
         <v>30</v>
       </c>
-      <c r="D28">
-        <v>30</v>
-      </c>
-      <c r="M28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="6">
+        <v>54</v>
+      </c>
+      <c r="B29">
         <v>20</v>
       </c>
       <c r="C29">
         <v>20</v>
       </c>
-      <c r="D29">
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <f>B33-B31</f>
         <v>20</v>
       </c>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="6"/>
       <c r="C32">
-        <f>C33-C31</f>
-        <v>20</v>
-      </c>
-      <c r="D32">
-        <f>C33-D31</f>
+        <f>B33-C31</f>
         <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
       </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="B33">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B35" s="6">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="B36">
         <f>B37-B35</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <f>C37-C35</f>
-        <v>41</v>
-      </c>
-      <c r="D36">
-        <f>D37-D35</f>
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="6">
+        <v>40</v>
+      </c>
+      <c r="B37">
         <v>44</v>
       </c>
       <c r="C37">
         <v>44</v>
       </c>
-      <c r="D37">
-        <v>44</v>
-      </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -6848,7 +6681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -6874,16 +6707,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>0</v>
@@ -6909,7 +6742,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>70</v>
@@ -6926,7 +6759,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>65</v>
@@ -6943,7 +6776,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>67</v>
@@ -6960,7 +6793,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>71</v>
@@ -6977,7 +6810,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>77</v>
@@ -6994,7 +6827,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>73</v>
@@ -7011,7 +6844,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>70</v>
@@ -7028,7 +6861,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -7045,7 +6878,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>60</v>
@@ -7065,16 +6898,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -7100,7 +6933,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7117,7 +6950,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7134,7 +6967,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -7151,7 +6984,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -7168,7 +7001,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7185,7 +7018,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7203,7 +7036,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>2</v>
